--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_7_15.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_7_15.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>77479.932756462</v>
+        <v>67063.67113878668</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>20576199.49865878</v>
+        <v>20128445.09196516</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>14761220.54155288</v>
+        <v>14785400.40188658</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4044468.296820035</v>
+        <v>4053791.604881639</v>
       </c>
     </row>
     <row r="11">
@@ -2086,13 +2086,13 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>5.853159629312586</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>5.155463001498521</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -2134,13 +2134,13 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>5.853159629312586</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>5.853159629312586</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2171,7 +2171,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>5.155463001498521</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -2219,13 +2219,13 @@
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>5.853159629312586</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>5.853159629312586</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>5.853159629312586</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2238,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>5.853159629312586</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>5.155463001498521</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2289,13 +2289,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>5.853159629312586</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>5.853159629312586</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2320,22 +2320,22 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C23" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>400.41929060787</v>
+        <v>347.7929433007856</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G23" t="n">
-        <v>80.52881231707573</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>296.6942762491862</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2371,13 +2371,13 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>215.2376613955581</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>254.4031385363085</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2414,10 +2414,10 @@
         <v>105.3400312422328</v>
       </c>
       <c r="H24" t="n">
-        <v>64.43642040880249</v>
+        <v>64.4364204088028</v>
       </c>
       <c r="I24" t="n">
-        <v>0.5655989524143256</v>
+        <v>0.5655989524140104</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2481,13 +2481,13 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2523,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>62.54951259296341</v>
       </c>
       <c r="S25" t="n">
-        <v>110.6136132997674</v>
+        <v>176.0511607144114</v>
       </c>
       <c r="T25" t="n">
         <v>235.0749813302457</v>
       </c>
       <c r="U25" t="n">
-        <v>279.9436348690883</v>
+        <v>130.2191201643199</v>
       </c>
       <c r="V25" t="n">
         <v>271.1468876098733</v>
@@ -2541,10 +2541,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X25" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2569,10 +2569,10 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>272.0360057071321</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>296.6942762491862</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2608,7 +2608,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>188.807584100135</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>254.4031385363085</v>
@@ -2617,7 +2617,7 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W26" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -2654,7 +2654,7 @@
         <v>64.43642040880249</v>
       </c>
       <c r="I27" t="n">
-        <v>0.565598952414021</v>
+        <v>0.5655989524140104</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2687,7 +2687,7 @@
         <v>96.13351487156335</v>
       </c>
       <c r="T27" t="n">
-        <v>155.4099113549955</v>
+        <v>155.409911354996</v>
       </c>
       <c r="U27" t="n">
         <v>195.3391329954943</v>
@@ -2715,25 +2715,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E28" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.0914834758182</v>
+        <v>122.0963537833493</v>
       </c>
       <c r="H28" t="n">
-        <v>143.7868096720507</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>100.5550999862365</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2769,16 +2769,16 @@
         <v>235.0749813302457</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>279.9436348690883</v>
       </c>
       <c r="V28" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X28" t="n">
-        <v>13.17702655868085</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y28" t="n">
         <v>222.4883416251229</v>
@@ -2797,7 +2797,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>53.32518509068786</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>410.1968133282722</v>
@@ -2806,10 +2806,10 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G29" t="n">
-        <v>403.5566476813898</v>
+        <v>283.9353090893974</v>
       </c>
       <c r="H29" t="n">
-        <v>296.6942762491862</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2845,10 +2845,10 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>215.2376613955581</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>254.4031385363085</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -2888,10 +2888,10 @@
         <v>105.3400312422328</v>
       </c>
       <c r="H30" t="n">
-        <v>64.43642040880249</v>
+        <v>64.4364204088028</v>
       </c>
       <c r="I30" t="n">
-        <v>0.565598952414021</v>
+        <v>0.5655989524140104</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>96.13351487156365</v>
+        <v>96.13351487156335</v>
       </c>
       <c r="T30" t="n">
         <v>155.4099113549955</v>
@@ -2952,25 +2952,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C31" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E31" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.0914834758182</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>100.5550999862365</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>62.54951259296342</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>235.0749813302457</v>
       </c>
       <c r="U31" t="n">
-        <v>145.3262117092187</v>
+        <v>279.9436348690883</v>
       </c>
       <c r="V31" t="n">
         <v>271.1468876098733</v>
@@ -3018,7 +3018,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y31" t="n">
-        <v>222.4883416251229</v>
+        <v>179.493211932654</v>
       </c>
     </row>
     <row r="32">
@@ -3034,19 +3034,19 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E32" t="n">
-        <v>76.45166988426887</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F32" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>403.5566476813898</v>
+        <v>228.3615155688563</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>296.6942762491862</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>109.2185571423462</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -3088,13 +3088,13 @@
         <v>254.4031385363085</v>
       </c>
       <c r="V32" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3122,13 +3122,13 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G33" t="n">
-        <v>105.3400312422328</v>
+        <v>105.3400312422332</v>
       </c>
       <c r="H33" t="n">
         <v>64.43642040880249</v>
       </c>
       <c r="I33" t="n">
-        <v>0.565598952414021</v>
+        <v>0.5655989524140104</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3158,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>96.13351487156365</v>
+        <v>96.13351487156335</v>
       </c>
       <c r="T33" t="n">
         <v>155.4099113549955</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3198,10 +3198,10 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>144.9342484829386</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>62.54951259296342</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>176.0511607144114</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>118.5706618062197</v>
+        <v>235.0749813302457</v>
       </c>
       <c r="U34" t="n">
         <v>279.9436348690883</v>
@@ -3271,7 +3271,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>247.7600009424705</v>
       </c>
       <c r="E35" t="n">
         <v>410.1968133282722</v>
@@ -3280,7 +3280,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>403.5566476813898</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3328,10 +3328,10 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W35" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>271.3939507676778</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3365,7 +3365,7 @@
         <v>64.43642040880249</v>
       </c>
       <c r="I36" t="n">
-        <v>0.565598952414021</v>
+        <v>0.5655989524140104</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3398,7 +3398,7 @@
         <v>96.13351487156335</v>
       </c>
       <c r="T36" t="n">
-        <v>155.4099113549958</v>
+        <v>155.4099113549955</v>
       </c>
       <c r="U36" t="n">
         <v>195.3391329954943</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D37" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G37" t="n">
-        <v>165.0914834758182</v>
+        <v>117.3391763171043</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>100.5550999862365</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,19 +3471,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>62.54951259296341</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>176.0511607144114</v>
       </c>
       <c r="T37" t="n">
-        <v>150.9463138057225</v>
+        <v>235.0749813302457</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>279.9436348690883</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W37" t="n">
         <v>276.2789678462144</v>
@@ -3492,7 +3492,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3508,19 +3508,19 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>410.1968133282722</v>
+        <v>351.0379524936898</v>
       </c>
       <c r="F38" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>403.5566476813898</v>
       </c>
       <c r="H38" t="n">
-        <v>9.37995948296448</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>109.2185571423462</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -3565,10 +3565,10 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3602,7 +3602,7 @@
         <v>64.43642040880249</v>
       </c>
       <c r="I39" t="n">
-        <v>0.565598952414021</v>
+        <v>0.5655989524140104</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,10 +3660,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3672,16 +3672,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
         <v>165.0914834758182</v>
       </c>
       <c r="H40" t="n">
-        <v>143.7868096720507</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>36.81030148214429</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,10 +3711,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>137.7424632374392</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>235.0749813302457</v>
       </c>
       <c r="U40" t="n">
         <v>279.9436348690883</v>
@@ -3739,16 +3739,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F41" t="n">
         <v>416.8201079258493</v>
@@ -3757,7 +3757,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>296.6942762491862</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>109.2185571423462</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>215.2376613955581</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>254.4031385363085</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>180.4164292070252</v>
       </c>
       <c r="W41" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>81.1326034643043</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3836,10 +3836,10 @@
         <v>105.3400312422328</v>
       </c>
       <c r="H42" t="n">
-        <v>64.4364204088028</v>
+        <v>64.43642040880249</v>
       </c>
       <c r="I42" t="n">
-        <v>0.565598952414021</v>
+        <v>0.5655989524140104</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,16 +3897,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>146.1435973926745</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>157.8996982303191</v>
+        <v>16.7333510186236</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
         <v>162.9848146305146</v>
@@ -3918,7 +3918,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>100.5550999862365</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,16 +3948,16 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>176.0511607144114</v>
       </c>
       <c r="T43" t="n">
-        <v>235.0749813302457</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>279.9436348690883</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
         <v>276.2789678462144</v>
@@ -3979,22 +3979,22 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>273.6265155691881</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0.1472567001121843</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F44" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G44" t="n">
-        <v>402.3145745171349</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>283.9738944557603</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>109.2185571423462</v>
       </c>
       <c r="T44" t="n">
-        <v>209.8004861190321</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>254.3037726831681</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X44" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="45">
@@ -4070,13 +4070,13 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G45" t="n">
-        <v>104.6754635109996</v>
+        <v>105.3400312422328</v>
       </c>
       <c r="H45" t="n">
-        <v>58.01809521505031</v>
+        <v>64.43642040880249</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>0.5655989524140104</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4106,13 +4106,13 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>83.78946074098184</v>
+        <v>96.13351487156335</v>
       </c>
       <c r="T45" t="n">
-        <v>152.7312370348056</v>
+        <v>155.4099113549955</v>
       </c>
       <c r="U45" t="n">
-        <v>195.2954114342289</v>
+        <v>195.3391329954939</v>
       </c>
       <c r="V45" t="n">
         <v>211.5744117368965</v>
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
-        <v>158.4134486130175</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>162.9848146305146</v>
+        <v>4.651400127978047</v>
       </c>
       <c r="G46" t="n">
-        <v>164.5343322142292</v>
+        <v>165.0914834758182</v>
       </c>
       <c r="H46" t="n">
-        <v>138.8332284553781</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>83.80004204681615</v>
+        <v>100.5550999862365</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,25 +4182,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>37.4979658673368</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>176.0511607144114</v>
       </c>
       <c r="T46" t="n">
-        <v>232.6944259398202</v>
+        <v>235.0749813302457</v>
       </c>
       <c r="U46" t="n">
-        <v>279.9132448002744</v>
+        <v>279.9436348690883</v>
       </c>
       <c r="V46" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>11.58807360954815</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>11.58807360954815</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>5.675791155697049</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>5.675791155697049</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0.4682527703450069</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.4682527703450069</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0.4682527703450069</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4682527703450069</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>6.028754418191963</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>6.028754418191963</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>11.82338245121142</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>11.82338245121142</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>11.82338245121142</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>11.82338245121142</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>11.82338245121142</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>17.61801048423088</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>23.41263851725034</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>23.41263851725034</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>17.50035606339924</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>17.50035606339924</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>11.58807360954815</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>11.58807360954815</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>11.58807360954815</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>11.58807360954815</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>5.675791155697049</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>5.675791155697049</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>5.675791155697049</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>5.675791155697049</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0.4682527703450069</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.4682527703450069</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0.4682527703450069</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0.4682527703450069</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>6.028754418191963</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>6.028754418191963</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>6.028754418191963</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>6.028754418191963</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>6.028754418191963</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>6.028754418191963</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>11.82338245121142</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>17.61801048423088</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>23.41263851725034</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>23.41263851725034</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>23.41263851725034</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>23.41263851725034</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>17.50035606339924</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>11.58807360954815</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>5.675791155697049</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>5.675791155697049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>5.675791155697049</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0.4682527703450069</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0.4682527703450069</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0.4682527703450069</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0.4682527703450069</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.4682527703450069</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0.4682527703450069</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0.4682527703450069</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0.4682527703450069</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>0.4682527703450069</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>6.262880803364467</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>12.05750883638393</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>17.85213686940338</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>23.41263851725034</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>23.41263851725034</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>23.41263851725034</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>23.41263851725034</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>17.50035606339924</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>17.50035606339924</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>11.58807360954815</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>11.58807360954815</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>11.58807360954815</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>11.58807360954815</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>11.58807360954815</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -5965,49 +5965,49 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1236.576633104287</v>
+        <v>813.291105096853</v>
       </c>
       <c r="C23" t="n">
-        <v>826.4520424175572</v>
+        <v>813.291105096853</v>
       </c>
       <c r="D23" t="n">
-        <v>421.9881125106177</v>
+        <v>461.9851017627262</v>
       </c>
       <c r="E23" t="n">
-        <v>421.9881125106177</v>
+        <v>461.9851017627262</v>
       </c>
       <c r="F23" t="n">
-        <v>421.9881125106177</v>
+        <v>40.95468971641374</v>
       </c>
       <c r="G23" t="n">
-        <v>340.6458778469049</v>
+        <v>40.95468971641374</v>
       </c>
       <c r="H23" t="n">
-        <v>40.95468971641373</v>
+        <v>40.95468971641374</v>
       </c>
       <c r="I23" t="n">
-        <v>40.95468971641373</v>
+        <v>40.95468971641374</v>
       </c>
       <c r="J23" t="n">
-        <v>386.2529846935315</v>
+        <v>386.2529846935316</v>
       </c>
       <c r="K23" t="n">
-        <v>434.56246279462</v>
+        <v>893.0672699341516</v>
       </c>
       <c r="L23" t="n">
-        <v>509.4398557477518</v>
+        <v>967.9446628872835</v>
       </c>
       <c r="M23" t="n">
-        <v>605.5815049020247</v>
+        <v>1064.086312041557</v>
       </c>
       <c r="N23" t="n">
-        <v>705.1474188460406</v>
+        <v>1163.652225985573</v>
       </c>
       <c r="O23" t="n">
-        <v>1211.961704086661</v>
+        <v>1252.268714360773</v>
       </c>
       <c r="P23" t="n">
-        <v>1610.646470736651</v>
+        <v>1759.082999601393</v>
       </c>
       <c r="Q23" t="n">
         <v>2047.734485820687</v>
@@ -6019,22 +6019,22 @@
         <v>2047.734485820687</v>
       </c>
       <c r="T23" t="n">
-        <v>2047.734485820687</v>
+        <v>1830.322706633254</v>
       </c>
       <c r="U23" t="n">
-        <v>2047.734485820687</v>
+        <v>1573.349839424862</v>
       </c>
       <c r="V23" t="n">
-        <v>2047.734485820687</v>
+        <v>1223.512284761342</v>
       </c>
       <c r="W23" t="n">
-        <v>2047.734485820687</v>
+        <v>1223.512284761342</v>
       </c>
       <c r="X23" t="n">
-        <v>2047.734485820687</v>
+        <v>1223.512284761342</v>
       </c>
       <c r="Y23" t="n">
-        <v>1646.797812768777</v>
+        <v>1223.512284761342</v>
       </c>
     </row>
     <row r="24">
@@ -6062,34 +6062,34 @@
         <v>106.6132951317843</v>
       </c>
       <c r="H24" t="n">
-        <v>41.52600178955952</v>
+        <v>41.5260017895592</v>
       </c>
       <c r="I24" t="n">
-        <v>40.95468971641373</v>
+        <v>40.95468971641374</v>
       </c>
       <c r="J24" t="n">
-        <v>44.36531680126194</v>
+        <v>44.36531680126197</v>
       </c>
       <c r="K24" t="n">
         <v>551.1796020418819</v>
       </c>
       <c r="L24" t="n">
-        <v>1057.993887282502</v>
+        <v>620.3394177944499</v>
       </c>
       <c r="M24" t="n">
-        <v>1146.539661817749</v>
+        <v>708.8851923296974</v>
       </c>
       <c r="N24" t="n">
-        <v>1243.264480719647</v>
+        <v>805.6100112315953</v>
       </c>
       <c r="O24" t="n">
-        <v>1322.7497762322</v>
+        <v>1117.756822500593</v>
       </c>
       <c r="P24" t="n">
-        <v>1559.349736467279</v>
+        <v>1624.571107741212</v>
       </c>
       <c r="Q24" t="n">
-        <v>1982.513114546754</v>
+        <v>2047.734485820687</v>
       </c>
       <c r="R24" t="n">
         <v>2047.734485820687</v>
@@ -6098,7 +6098,7 @@
         <v>1950.62992534436</v>
       </c>
       <c r="T24" t="n">
-        <v>1793.65021690497</v>
+        <v>1793.650216904971</v>
       </c>
       <c r="U24" t="n">
         <v>1596.337961353966</v>
@@ -6123,40 +6123,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>212.0480621546972</v>
+        <v>697.0846478528765</v>
       </c>
       <c r="C25" t="n">
-        <v>40.95468971641373</v>
+        <v>525.991275414593</v>
       </c>
       <c r="D25" t="n">
-        <v>40.95468971641373</v>
+        <v>366.496630737503</v>
       </c>
       <c r="E25" t="n">
-        <v>40.95468971641373</v>
+        <v>205.5858156058225</v>
       </c>
       <c r="F25" t="n">
-        <v>40.95468971641373</v>
+        <v>40.95468971641374</v>
       </c>
       <c r="G25" t="n">
-        <v>40.95468971641373</v>
+        <v>40.95468971641374</v>
       </c>
       <c r="H25" t="n">
-        <v>40.95468971641373</v>
+        <v>40.95468971641374</v>
       </c>
       <c r="I25" t="n">
-        <v>40.95468971641373</v>
+        <v>40.95468971641374</v>
       </c>
       <c r="J25" t="n">
-        <v>89.08209244837872</v>
+        <v>89.08209244837894</v>
       </c>
       <c r="K25" t="n">
-        <v>299.5805723521678</v>
+        <v>299.580572352168</v>
       </c>
       <c r="L25" t="n">
-        <v>631.0694858385732</v>
+        <v>631.0694858385734</v>
       </c>
       <c r="M25" t="n">
-        <v>995.81707139225</v>
+        <v>995.8170713922502</v>
       </c>
       <c r="N25" t="n">
         <v>1350.344553291356</v>
@@ -6171,28 +6171,28 @@
         <v>2047.734485820687</v>
       </c>
       <c r="R25" t="n">
-        <v>2047.734485820687</v>
+        <v>1984.553159969209</v>
       </c>
       <c r="S25" t="n">
-        <v>1936.003563295669</v>
+        <v>1806.723704702126</v>
       </c>
       <c r="T25" t="n">
-        <v>1698.554087204512</v>
+        <v>1569.274228610969</v>
       </c>
       <c r="U25" t="n">
-        <v>1415.782738851897</v>
+        <v>1437.739763798525</v>
       </c>
       <c r="V25" t="n">
-        <v>1141.896993791419</v>
+        <v>1163.854018738047</v>
       </c>
       <c r="W25" t="n">
-        <v>862.8273293002935</v>
+        <v>884.7843542469209</v>
       </c>
       <c r="X25" t="n">
-        <v>624.483467159977</v>
+        <v>884.7843542469209</v>
       </c>
       <c r="Y25" t="n">
-        <v>399.7477685487416</v>
+        <v>884.7843542469209</v>
       </c>
     </row>
     <row r="26">
@@ -6202,46 +6202,46 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>866.4490316696656</v>
+        <v>1440.924063948775</v>
       </c>
       <c r="C26" t="n">
-        <v>866.4490316696656</v>
+        <v>1440.924063948775</v>
       </c>
       <c r="D26" t="n">
-        <v>461.9851017627262</v>
+        <v>1036.460134041836</v>
       </c>
       <c r="E26" t="n">
-        <v>461.9851017627262</v>
+        <v>1036.460134041836</v>
       </c>
       <c r="F26" t="n">
-        <v>40.95468971641373</v>
+        <v>615.4297219955231</v>
       </c>
       <c r="G26" t="n">
-        <v>40.95468971641373</v>
+        <v>340.6458778469049</v>
       </c>
       <c r="H26" t="n">
-        <v>40.95468971641373</v>
+        <v>40.95468971641374</v>
       </c>
       <c r="I26" t="n">
-        <v>40.95468971641373</v>
+        <v>40.95468971641374</v>
       </c>
       <c r="J26" t="n">
-        <v>386.2529846935315</v>
+        <v>386.2529846935316</v>
       </c>
       <c r="K26" t="n">
-        <v>434.56246279462</v>
+        <v>434.5624627946201</v>
       </c>
       <c r="L26" t="n">
-        <v>746.0000446151594</v>
+        <v>509.4398557477519</v>
       </c>
       <c r="M26" t="n">
-        <v>1252.814329855779</v>
+        <v>605.581504902025</v>
       </c>
       <c r="N26" t="n">
-        <v>1352.380243799795</v>
+        <v>705.1474188460411</v>
       </c>
       <c r="O26" t="n">
-        <v>1440.996732174995</v>
+        <v>995.8416641998144</v>
       </c>
       <c r="P26" t="n">
         <v>1502.655949440434</v>
@@ -6256,22 +6256,22 @@
         <v>2047.734485820687</v>
       </c>
       <c r="T26" t="n">
-        <v>1857.019754406409</v>
+        <v>2047.734485820687</v>
       </c>
       <c r="U26" t="n">
-        <v>1600.046887198016</v>
+        <v>1790.761618612294</v>
       </c>
       <c r="V26" t="n">
-        <v>1250.209332534497</v>
+        <v>1440.924063948775</v>
       </c>
       <c r="W26" t="n">
-        <v>866.4490316696656</v>
+        <v>1440.924063948775</v>
       </c>
       <c r="X26" t="n">
-        <v>866.4490316696656</v>
+        <v>1440.924063948775</v>
       </c>
       <c r="Y26" t="n">
-        <v>866.4490316696656</v>
+        <v>1440.924063948775</v>
       </c>
     </row>
     <row r="27">
@@ -6281,28 +6281,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>693.3622919504645</v>
+        <v>693.3622919504646</v>
       </c>
       <c r="C27" t="n">
-        <v>559.3672206994102</v>
+        <v>559.3672206994103</v>
       </c>
       <c r="D27" t="n">
-        <v>442.4700629188026</v>
+        <v>442.4700629188027</v>
       </c>
       <c r="E27" t="n">
-        <v>321.9772469111306</v>
+        <v>321.9772469111307</v>
       </c>
       <c r="F27" t="n">
-        <v>213.0173670936352</v>
+        <v>213.0173670936353</v>
       </c>
       <c r="G27" t="n">
         <v>106.6132951317839</v>
       </c>
       <c r="H27" t="n">
-        <v>41.52600178955913</v>
+        <v>41.5260017895592</v>
       </c>
       <c r="I27" t="n">
-        <v>40.95468971641373</v>
+        <v>40.95468971641374</v>
       </c>
       <c r="J27" t="n">
         <v>288.0337207758952</v>
@@ -6311,22 +6311,22 @@
         <v>794.8480060165152</v>
       </c>
       <c r="L27" t="n">
-        <v>1193.749719280734</v>
+        <v>864.0078217690832</v>
       </c>
       <c r="M27" t="n">
-        <v>1282.295493815982</v>
+        <v>952.5535963043307</v>
       </c>
       <c r="N27" t="n">
-        <v>1379.02031271788</v>
+        <v>1049.278415206229</v>
       </c>
       <c r="O27" t="n">
-        <v>1458.505608230433</v>
+        <v>1128.763710718782</v>
       </c>
       <c r="P27" t="n">
-        <v>1965.319893471053</v>
+        <v>1624.571107741212</v>
       </c>
       <c r="Q27" t="n">
-        <v>1982.513114546754</v>
+        <v>2047.734485820687</v>
       </c>
       <c r="R27" t="n">
         <v>2047.734485820687</v>
@@ -6347,10 +6347,10 @@
         <v>1169.393266083328</v>
       </c>
       <c r="X27" t="n">
-        <v>993.0672842222211</v>
+        <v>993.0672842222212</v>
       </c>
       <c r="Y27" t="n">
-        <v>833.6653245860512</v>
+        <v>833.6653245860513</v>
       </c>
     </row>
     <row r="28">
@@ -6360,43 +6360,43 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1110.65373182672</v>
+        <v>323.7789846797151</v>
       </c>
       <c r="C28" t="n">
-        <v>939.5603593884368</v>
+        <v>323.7789846797151</v>
       </c>
       <c r="D28" t="n">
-        <v>780.0657147113468</v>
+        <v>164.2843400026251</v>
       </c>
       <c r="E28" t="n">
-        <v>619.1548995796663</v>
+        <v>164.2843400026251</v>
       </c>
       <c r="F28" t="n">
-        <v>454.5237736902575</v>
+        <v>164.2843400026251</v>
       </c>
       <c r="G28" t="n">
-        <v>287.7646994722594</v>
+        <v>40.95468971641374</v>
       </c>
       <c r="H28" t="n">
-        <v>142.5254977833193</v>
+        <v>40.95468971641374</v>
       </c>
       <c r="I28" t="n">
-        <v>40.95468971641373</v>
+        <v>40.95468971641374</v>
       </c>
       <c r="J28" t="n">
-        <v>89.08209244837872</v>
+        <v>89.08209244837883</v>
       </c>
       <c r="K28" t="n">
-        <v>299.5805723521678</v>
+        <v>299.5805723521679</v>
       </c>
       <c r="L28" t="n">
-        <v>631.0694858385732</v>
+        <v>631.0694858385733</v>
       </c>
       <c r="M28" t="n">
-        <v>995.81707139225</v>
+        <v>995.8170713922501</v>
       </c>
       <c r="N28" t="n">
-        <v>1350.344553291355</v>
+        <v>1350.344553291356</v>
       </c>
       <c r="O28" t="n">
         <v>1677.968604472193</v>
@@ -6414,22 +6414,22 @@
         <v>2047.734485820687</v>
       </c>
       <c r="T28" t="n">
-        <v>1810.285009729529</v>
+        <v>1810.28500972953</v>
       </c>
       <c r="U28" t="n">
-        <v>1810.285009729529</v>
+        <v>1527.513661376915</v>
       </c>
       <c r="V28" t="n">
-        <v>1536.399264669051</v>
+        <v>1253.627916316437</v>
       </c>
       <c r="W28" t="n">
-        <v>1536.399264669051</v>
+        <v>974.5582518253113</v>
       </c>
       <c r="X28" t="n">
-        <v>1523.089136832</v>
+        <v>736.2143896849948</v>
       </c>
       <c r="Y28" t="n">
-        <v>1298.353438220765</v>
+        <v>511.4786910737595</v>
       </c>
     </row>
     <row r="29">
@@ -6439,46 +6439,46 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1637.513306156197</v>
+        <v>1163.128659760372</v>
       </c>
       <c r="C29" t="n">
-        <v>1637.513306156197</v>
+        <v>1163.128659760372</v>
       </c>
       <c r="D29" t="n">
-        <v>1583.64948283227</v>
+        <v>1163.128659760372</v>
       </c>
       <c r="E29" t="n">
-        <v>1169.309267349167</v>
+        <v>748.788444277269</v>
       </c>
       <c r="F29" t="n">
-        <v>748.2788553028543</v>
+        <v>327.7580322309566</v>
       </c>
       <c r="G29" t="n">
-        <v>340.6458778469049</v>
+        <v>40.95468971641374</v>
       </c>
       <c r="H29" t="n">
-        <v>40.95468971641373</v>
+        <v>40.95468971641374</v>
       </c>
       <c r="I29" t="n">
-        <v>40.95468971641373</v>
+        <v>40.95468971641374</v>
       </c>
       <c r="J29" t="n">
-        <v>59.47715780580237</v>
+        <v>386.2529846935316</v>
       </c>
       <c r="K29" t="n">
-        <v>242.2318612283882</v>
+        <v>628.7368960582262</v>
       </c>
       <c r="L29" t="n">
-        <v>749.0461464690081</v>
+        <v>703.6142890113581</v>
       </c>
       <c r="M29" t="n">
-        <v>1255.860431709628</v>
+        <v>799.7559381656311</v>
       </c>
       <c r="N29" t="n">
-        <v>1762.674716950248</v>
+        <v>899.3218521096471</v>
       </c>
       <c r="O29" t="n">
-        <v>1851.291205325448</v>
+        <v>1406.136137350267</v>
       </c>
       <c r="P29" t="n">
         <v>1912.950422590887</v>
@@ -6493,22 +6493,22 @@
         <v>2047.734485820687</v>
       </c>
       <c r="T29" t="n">
-        <v>2047.734485820687</v>
+        <v>1830.322706633254</v>
       </c>
       <c r="U29" t="n">
-        <v>2047.734485820687</v>
+        <v>1573.349839424862</v>
       </c>
       <c r="V29" t="n">
-        <v>2047.734485820687</v>
+        <v>1573.349839424862</v>
       </c>
       <c r="W29" t="n">
-        <v>2047.734485820687</v>
+        <v>1573.349839424862</v>
       </c>
       <c r="X29" t="n">
-        <v>2047.734485820687</v>
+        <v>1573.349839424862</v>
       </c>
       <c r="Y29" t="n">
-        <v>2047.734485820687</v>
+        <v>1573.349839424862</v>
       </c>
     </row>
     <row r="30">
@@ -6518,52 +6518,52 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>693.3622919504646</v>
+        <v>693.362291950465</v>
       </c>
       <c r="C30" t="n">
-        <v>559.3672206994103</v>
+        <v>559.3672206994106</v>
       </c>
       <c r="D30" t="n">
-        <v>442.4700629188027</v>
+        <v>442.470062918803</v>
       </c>
       <c r="E30" t="n">
-        <v>321.9772469111307</v>
+        <v>321.977246911131</v>
       </c>
       <c r="F30" t="n">
-        <v>213.0173670936353</v>
+        <v>213.0173670936356</v>
       </c>
       <c r="G30" t="n">
-        <v>106.613295131784</v>
+        <v>106.6132951317843</v>
       </c>
       <c r="H30" t="n">
-        <v>41.52600178955921</v>
+        <v>41.5260017895592</v>
       </c>
       <c r="I30" t="n">
-        <v>40.95468971641373</v>
+        <v>40.95468971641374</v>
       </c>
       <c r="J30" t="n">
-        <v>44.36531680126194</v>
+        <v>288.0337207758952</v>
       </c>
       <c r="K30" t="n">
-        <v>551.1796020418819</v>
+        <v>794.8480060165152</v>
       </c>
       <c r="L30" t="n">
-        <v>853.0009335508937</v>
+        <v>864.0078217690832</v>
       </c>
       <c r="M30" t="n">
-        <v>941.5467080861411</v>
+        <v>952.5535963043307</v>
       </c>
       <c r="N30" t="n">
-        <v>1038.271526988039</v>
+        <v>1049.278415206229</v>
       </c>
       <c r="O30" t="n">
-        <v>1117.756822500592</v>
+        <v>1128.763710718782</v>
       </c>
       <c r="P30" t="n">
-        <v>1624.571107741212</v>
+        <v>1559.349736467279</v>
       </c>
       <c r="Q30" t="n">
-        <v>2047.734485820687</v>
+        <v>1982.513114546754</v>
       </c>
       <c r="R30" t="n">
         <v>2047.734485820687</v>
@@ -6572,7 +6572,7 @@
         <v>1950.62992534436</v>
       </c>
       <c r="T30" t="n">
-        <v>1793.65021690497</v>
+        <v>1793.650216904971</v>
       </c>
       <c r="U30" t="n">
         <v>1596.337961353966</v>
@@ -6581,13 +6581,13 @@
         <v>1382.626434347</v>
       </c>
       <c r="W30" t="n">
-        <v>1169.393266083328</v>
+        <v>1169.393266083329</v>
       </c>
       <c r="X30" t="n">
-        <v>993.0672842222212</v>
+        <v>993.0672842222216</v>
       </c>
       <c r="Y30" t="n">
-        <v>833.6653245860513</v>
+        <v>833.6653245860516</v>
       </c>
     </row>
     <row r="31">
@@ -6597,46 +6597,46 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>634.0243300303732</v>
+        <v>367.2084086115019</v>
       </c>
       <c r="C31" t="n">
-        <v>462.9309575920898</v>
+        <v>367.2084086115019</v>
       </c>
       <c r="D31" t="n">
-        <v>303.4363129149998</v>
+        <v>207.7137639344119</v>
       </c>
       <c r="E31" t="n">
-        <v>142.5254977833193</v>
+        <v>207.7137639344119</v>
       </c>
       <c r="F31" t="n">
-        <v>142.5254977833193</v>
+        <v>207.7137639344119</v>
       </c>
       <c r="G31" t="n">
-        <v>142.5254977833193</v>
+        <v>40.95468971641374</v>
       </c>
       <c r="H31" t="n">
-        <v>142.5254977833193</v>
+        <v>40.95468971641374</v>
       </c>
       <c r="I31" t="n">
-        <v>40.95468971641373</v>
+        <v>40.95468971641374</v>
       </c>
       <c r="J31" t="n">
-        <v>89.08209244837877</v>
+        <v>89.0820924483788</v>
       </c>
       <c r="K31" t="n">
-        <v>299.5805723521678</v>
+        <v>299.5805723521679</v>
       </c>
       <c r="L31" t="n">
-        <v>631.0694858385732</v>
+        <v>631.0694858385733</v>
       </c>
       <c r="M31" t="n">
-        <v>995.8170713922499</v>
+        <v>995.8170713922501</v>
       </c>
       <c r="N31" t="n">
-        <v>1350.344553291355</v>
+        <v>1350.344553291356</v>
       </c>
       <c r="O31" t="n">
-        <v>1677.968604472192</v>
+        <v>1677.968604472193</v>
       </c>
       <c r="P31" t="n">
         <v>1941.884076695463</v>
@@ -6645,28 +6645,28 @@
         <v>2047.734485820687</v>
       </c>
       <c r="R31" t="n">
-        <v>1984.553159969208</v>
+        <v>2047.734485820687</v>
       </c>
       <c r="S31" t="n">
-        <v>1984.553159969208</v>
+        <v>2047.734485820687</v>
       </c>
       <c r="T31" t="n">
-        <v>1984.553159969208</v>
+        <v>1810.28500972953</v>
       </c>
       <c r="U31" t="n">
-        <v>1837.759006727573</v>
+        <v>1527.513661376915</v>
       </c>
       <c r="V31" t="n">
-        <v>1563.873261667095</v>
+        <v>1253.627916316437</v>
       </c>
       <c r="W31" t="n">
-        <v>1284.80359717597</v>
+        <v>974.5582518253113</v>
       </c>
       <c r="X31" t="n">
-        <v>1046.459735035653</v>
+        <v>736.2143896849948</v>
       </c>
       <c r="Y31" t="n">
-        <v>821.7240364244176</v>
+        <v>554.9081150055463</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>946.8419881926845</v>
+        <v>1390.118220781247</v>
       </c>
       <c r="C32" t="n">
-        <v>946.8419881926845</v>
+        <v>1390.118220781247</v>
       </c>
       <c r="D32" t="n">
-        <v>946.8419881926845</v>
+        <v>985.6542908743074</v>
       </c>
       <c r="E32" t="n">
-        <v>869.6180792186756</v>
+        <v>571.3140753912041</v>
       </c>
       <c r="F32" t="n">
-        <v>448.5876671723631</v>
+        <v>571.3140753912041</v>
       </c>
       <c r="G32" t="n">
-        <v>40.95468971641373</v>
+        <v>340.6458778469049</v>
       </c>
       <c r="H32" t="n">
-        <v>40.95468971641373</v>
+        <v>40.95468971641374</v>
       </c>
       <c r="I32" t="n">
-        <v>40.95468971641373</v>
+        <v>40.95468971641374</v>
       </c>
       <c r="J32" t="n">
-        <v>386.2529846935315</v>
+        <v>237.8164558287896</v>
       </c>
       <c r="K32" t="n">
-        <v>434.56246279462</v>
+        <v>744.6307410694096</v>
       </c>
       <c r="L32" t="n">
-        <v>509.4398557477518</v>
+        <v>819.5081340225415</v>
       </c>
       <c r="M32" t="n">
-        <v>605.5815049020247</v>
+        <v>915.6497831768146</v>
       </c>
       <c r="N32" t="n">
-        <v>705.1474188460406</v>
+        <v>1015.215697120831</v>
       </c>
       <c r="O32" t="n">
-        <v>995.8416641998142</v>
+        <v>1103.832185496031</v>
       </c>
       <c r="P32" t="n">
-        <v>1502.655949440434</v>
+        <v>1610.646470736651</v>
       </c>
       <c r="Q32" t="n">
-        <v>1939.74396452447</v>
+        <v>2047.734485820687</v>
       </c>
       <c r="R32" t="n">
         <v>2047.734485820687</v>
       </c>
       <c r="S32" t="n">
-        <v>1937.412710929428</v>
+        <v>2047.734485820687</v>
       </c>
       <c r="T32" t="n">
-        <v>1937.412710929428</v>
+        <v>2047.734485820687</v>
       </c>
       <c r="U32" t="n">
-        <v>1680.439843721035</v>
+        <v>1790.761618612294</v>
       </c>
       <c r="V32" t="n">
-        <v>1330.602289057516</v>
+        <v>1790.761618612294</v>
       </c>
       <c r="W32" t="n">
-        <v>946.8419881926845</v>
+        <v>1790.761618612294</v>
       </c>
       <c r="X32" t="n">
-        <v>946.8419881926845</v>
+        <v>1390.118220781247</v>
       </c>
       <c r="Y32" t="n">
-        <v>946.8419881926845</v>
+        <v>1390.118220781247</v>
       </c>
     </row>
     <row r="33">
@@ -6755,46 +6755,46 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>693.3622919504646</v>
+        <v>693.362291950465</v>
       </c>
       <c r="C33" t="n">
-        <v>559.3672206994103</v>
+        <v>559.3672206994106</v>
       </c>
       <c r="D33" t="n">
-        <v>442.4700629188027</v>
+        <v>442.470062918803</v>
       </c>
       <c r="E33" t="n">
-        <v>321.9772469111307</v>
+        <v>321.977246911131</v>
       </c>
       <c r="F33" t="n">
-        <v>213.0173670936353</v>
+        <v>213.0173670936356</v>
       </c>
       <c r="G33" t="n">
-        <v>106.613295131784</v>
+        <v>106.6132951317839</v>
       </c>
       <c r="H33" t="n">
-        <v>41.52600178955921</v>
+        <v>41.5260017895592</v>
       </c>
       <c r="I33" t="n">
-        <v>40.95468971641373</v>
+        <v>40.95468971641374</v>
       </c>
       <c r="J33" t="n">
         <v>288.0337207758952</v>
       </c>
       <c r="K33" t="n">
-        <v>325.5157297141848</v>
+        <v>794.8480060165152</v>
       </c>
       <c r="L33" t="n">
-        <v>394.6755454667527</v>
+        <v>864.0078217690832</v>
       </c>
       <c r="M33" t="n">
-        <v>483.2213200020001</v>
+        <v>1327.175556685095</v>
       </c>
       <c r="N33" t="n">
-        <v>579.9461389038979</v>
+        <v>1423.900375586993</v>
       </c>
       <c r="O33" t="n">
-        <v>1052.535451226659</v>
+        <v>1503.385671099546</v>
       </c>
       <c r="P33" t="n">
         <v>1559.349736467279</v>
@@ -6809,7 +6809,7 @@
         <v>1950.62992534436</v>
       </c>
       <c r="T33" t="n">
-        <v>1793.65021690497</v>
+        <v>1793.650216904971</v>
       </c>
       <c r="U33" t="n">
         <v>1596.337961353966</v>
@@ -6818,13 +6818,13 @@
         <v>1382.626434347</v>
       </c>
       <c r="W33" t="n">
-        <v>1169.393266083328</v>
+        <v>1169.393266083329</v>
       </c>
       <c r="X33" t="n">
-        <v>993.0672842222212</v>
+        <v>993.0672842222216</v>
       </c>
       <c r="Y33" t="n">
-        <v>833.6653245860513</v>
+        <v>833.6653245860516</v>
       </c>
     </row>
     <row r="34">
@@ -6834,43 +6834,43 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>200.4493343935037</v>
+        <v>511.4786910737595</v>
       </c>
       <c r="C34" t="n">
-        <v>200.4493343935037</v>
+        <v>511.4786910737595</v>
       </c>
       <c r="D34" t="n">
-        <v>40.95468971641373</v>
+        <v>351.9840463966695</v>
       </c>
       <c r="E34" t="n">
-        <v>40.95468971641373</v>
+        <v>351.9840463966695</v>
       </c>
       <c r="F34" t="n">
-        <v>40.95468971641373</v>
+        <v>187.3529205072608</v>
       </c>
       <c r="G34" t="n">
-        <v>40.95468971641373</v>
+        <v>40.95468971641374</v>
       </c>
       <c r="H34" t="n">
-        <v>40.95468971641373</v>
+        <v>40.95468971641374</v>
       </c>
       <c r="I34" t="n">
-        <v>40.95468971641373</v>
+        <v>40.95468971641374</v>
       </c>
       <c r="J34" t="n">
-        <v>89.08209244837869</v>
+        <v>89.08209244837894</v>
       </c>
       <c r="K34" t="n">
-        <v>299.5805723521677</v>
+        <v>299.580572352168</v>
       </c>
       <c r="L34" t="n">
-        <v>631.0694858385731</v>
+        <v>631.0694858385734</v>
       </c>
       <c r="M34" t="n">
-        <v>995.8170713922499</v>
+        <v>995.8170713922502</v>
       </c>
       <c r="N34" t="n">
-        <v>1350.344553291355</v>
+        <v>1350.344553291356</v>
       </c>
       <c r="O34" t="n">
         <v>1677.968604472192</v>
@@ -6882,28 +6882,28 @@
         <v>2047.734485820687</v>
       </c>
       <c r="R34" t="n">
-        <v>1984.553159969208</v>
+        <v>2047.734485820687</v>
       </c>
       <c r="S34" t="n">
-        <v>1806.723704702126</v>
+        <v>2047.734485820687</v>
       </c>
       <c r="T34" t="n">
-        <v>1686.955359443318</v>
+        <v>1810.28500972953</v>
       </c>
       <c r="U34" t="n">
-        <v>1404.184011090704</v>
+        <v>1527.513661376915</v>
       </c>
       <c r="V34" t="n">
-        <v>1130.298266030226</v>
+        <v>1253.627916316437</v>
       </c>
       <c r="W34" t="n">
-        <v>851.2286015391001</v>
+        <v>974.5582518253113</v>
       </c>
       <c r="X34" t="n">
-        <v>612.8847393987834</v>
+        <v>736.2143896849948</v>
       </c>
       <c r="Y34" t="n">
-        <v>388.1490407875481</v>
+        <v>511.4786910737595</v>
       </c>
     </row>
     <row r="35">
@@ -6913,46 +6913,46 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>455.294905199517</v>
+        <v>1113.190509870083</v>
       </c>
       <c r="C35" t="n">
-        <v>455.294905199517</v>
+        <v>1113.190509870083</v>
       </c>
       <c r="D35" t="n">
-        <v>455.294905199517</v>
+        <v>862.9278826554664</v>
       </c>
       <c r="E35" t="n">
-        <v>40.95468971641373</v>
+        <v>448.5876671723631</v>
       </c>
       <c r="F35" t="n">
-        <v>40.95468971641373</v>
+        <v>448.5876671723631</v>
       </c>
       <c r="G35" t="n">
-        <v>40.95468971641373</v>
+        <v>40.95468971641372</v>
       </c>
       <c r="H35" t="n">
-        <v>40.95468971641373</v>
+        <v>40.95468971641372</v>
       </c>
       <c r="I35" t="n">
-        <v>40.95468971641373</v>
+        <v>40.95468971641372</v>
       </c>
       <c r="J35" t="n">
-        <v>386.2529846935315</v>
+        <v>386.2529846935316</v>
       </c>
       <c r="K35" t="n">
-        <v>636.6402197731933</v>
+        <v>434.5624627946201</v>
       </c>
       <c r="L35" t="n">
-        <v>711.5176127263251</v>
+        <v>509.4398557477519</v>
       </c>
       <c r="M35" t="n">
-        <v>807.659261880598</v>
+        <v>605.581504902025</v>
       </c>
       <c r="N35" t="n">
-        <v>907.225175824614</v>
+        <v>934.1824469343752</v>
       </c>
       <c r="O35" t="n">
-        <v>995.8416641998142</v>
+        <v>1440.996732174995</v>
       </c>
       <c r="P35" t="n">
         <v>1502.655949440434</v>
@@ -6961,28 +6961,28 @@
         <v>1939.74396452447</v>
       </c>
       <c r="R35" t="n">
-        <v>2047.734485820687</v>
+        <v>2047.734485820686</v>
       </c>
       <c r="S35" t="n">
-        <v>1937.412710929428</v>
+        <v>1937.412710929427</v>
       </c>
       <c r="T35" t="n">
         <v>1720.000931741995</v>
       </c>
       <c r="U35" t="n">
-        <v>1463.028064533603</v>
+        <v>1463.028064533602</v>
       </c>
       <c r="V35" t="n">
-        <v>1113.190509870084</v>
+        <v>1113.190509870083</v>
       </c>
       <c r="W35" t="n">
-        <v>729.4302090052522</v>
+        <v>1113.190509870083</v>
       </c>
       <c r="X35" t="n">
-        <v>455.294905199517</v>
+        <v>1113.190509870083</v>
       </c>
       <c r="Y35" t="n">
-        <v>455.294905199517</v>
+        <v>1113.190509870083</v>
       </c>
     </row>
     <row r="36">
@@ -6992,58 +6992,58 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>693.3622919504646</v>
+        <v>693.3622919504645</v>
       </c>
       <c r="C36" t="n">
         <v>559.3672206994103</v>
       </c>
       <c r="D36" t="n">
-        <v>442.4700629188027</v>
+        <v>442.4700629188028</v>
       </c>
       <c r="E36" t="n">
-        <v>321.9772469111307</v>
+        <v>321.9772469111308</v>
       </c>
       <c r="F36" t="n">
         <v>213.0173670936353</v>
       </c>
       <c r="G36" t="n">
-        <v>106.613295131784</v>
+        <v>106.6132951317839</v>
       </c>
       <c r="H36" t="n">
-        <v>41.52600178955921</v>
+        <v>41.52600178955919</v>
       </c>
       <c r="I36" t="n">
-        <v>40.95468971641373</v>
+        <v>40.95468971641372</v>
       </c>
       <c r="J36" t="n">
         <v>288.0337207758952</v>
       </c>
       <c r="K36" t="n">
-        <v>794.8480060165152</v>
+        <v>771.5427640967265</v>
       </c>
       <c r="L36" t="n">
-        <v>864.0078217690832</v>
+        <v>840.7025798492945</v>
       </c>
       <c r="M36" t="n">
-        <v>1327.175556685095</v>
+        <v>1347.516865089914</v>
       </c>
       <c r="N36" t="n">
-        <v>1423.900375586993</v>
+        <v>1444.241683991812</v>
       </c>
       <c r="O36" t="n">
-        <v>1503.385671099546</v>
+        <v>1523.726979504366</v>
       </c>
       <c r="P36" t="n">
-        <v>1559.349736467279</v>
+        <v>2030.541264744985</v>
       </c>
       <c r="Q36" t="n">
-        <v>1982.513114546754</v>
+        <v>2047.734485820686</v>
       </c>
       <c r="R36" t="n">
-        <v>2047.734485820687</v>
+        <v>2047.734485820686</v>
       </c>
       <c r="S36" t="n">
-        <v>1950.62992534436</v>
+        <v>1950.629925344359</v>
       </c>
       <c r="T36" t="n">
         <v>1793.65021690497</v>
@@ -7058,10 +7058,10 @@
         <v>1169.393266083328</v>
       </c>
       <c r="X36" t="n">
-        <v>993.0672842222212</v>
+        <v>993.0672842222211</v>
       </c>
       <c r="Y36" t="n">
-        <v>833.6653245860513</v>
+        <v>833.6653245860512</v>
       </c>
     </row>
     <row r="37">
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>965.4145301377803</v>
+        <v>495.2036085664335</v>
       </c>
       <c r="C37" t="n">
-        <v>794.3211576994968</v>
+        <v>324.11023612815</v>
       </c>
       <c r="D37" t="n">
-        <v>634.8265130224067</v>
+        <v>324.11023612815</v>
       </c>
       <c r="E37" t="n">
-        <v>473.9156978907262</v>
+        <v>324.11023612815</v>
       </c>
       <c r="F37" t="n">
-        <v>309.2845720013174</v>
+        <v>159.4791102387413</v>
       </c>
       <c r="G37" t="n">
-        <v>142.5254977833193</v>
+        <v>40.95468971641372</v>
       </c>
       <c r="H37" t="n">
-        <v>142.5254977833193</v>
+        <v>40.95468971641372</v>
       </c>
       <c r="I37" t="n">
-        <v>40.95468971641373</v>
+        <v>40.95468971641372</v>
       </c>
       <c r="J37" t="n">
         <v>89.08209244837877</v>
@@ -7104,10 +7104,10 @@
         <v>631.0694858385732</v>
       </c>
       <c r="M37" t="n">
-        <v>995.81707139225</v>
+        <v>995.8170713922492</v>
       </c>
       <c r="N37" t="n">
-        <v>1350.344553291356</v>
+        <v>1350.344553291355</v>
       </c>
       <c r="O37" t="n">
         <v>1677.968604472192</v>
@@ -7116,31 +7116,31 @@
         <v>1941.884076695463</v>
       </c>
       <c r="Q37" t="n">
-        <v>2047.734485820687</v>
+        <v>2047.734485820686</v>
       </c>
       <c r="R37" t="n">
-        <v>2047.734485820687</v>
+        <v>1984.553159969208</v>
       </c>
       <c r="S37" t="n">
-        <v>2047.734485820687</v>
+        <v>1806.723704702126</v>
       </c>
       <c r="T37" t="n">
-        <v>1895.263461774502</v>
+        <v>1569.274228610968</v>
       </c>
       <c r="U37" t="n">
-        <v>1895.263461774502</v>
+        <v>1286.502880258354</v>
       </c>
       <c r="V37" t="n">
-        <v>1895.263461774502</v>
+        <v>1012.617135197876</v>
       </c>
       <c r="W37" t="n">
-        <v>1616.193797283377</v>
+        <v>733.5474707067501</v>
       </c>
       <c r="X37" t="n">
-        <v>1377.84993514306</v>
+        <v>495.2036085664335</v>
       </c>
       <c r="Y37" t="n">
-        <v>1153.114236531825</v>
+        <v>495.2036085664335</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1697.896931157167</v>
+        <v>803.1714575700296</v>
       </c>
       <c r="C38" t="n">
-        <v>1697.896931157167</v>
+        <v>803.1714575700296</v>
       </c>
       <c r="D38" t="n">
-        <v>1293.433001250228</v>
+        <v>803.1714575700296</v>
       </c>
       <c r="E38" t="n">
-        <v>879.0927857671245</v>
+        <v>448.5876671723631</v>
       </c>
       <c r="F38" t="n">
-        <v>458.062373720812</v>
+        <v>448.5876671723631</v>
       </c>
       <c r="G38" t="n">
-        <v>50.4293962648627</v>
+        <v>40.95468971641373</v>
       </c>
       <c r="H38" t="n">
         <v>40.95468971641373</v>
@@ -7174,25 +7174,25 @@
         <v>40.95468971641373</v>
       </c>
       <c r="J38" t="n">
-        <v>386.2529846935315</v>
+        <v>386.2529846935316</v>
       </c>
       <c r="K38" t="n">
-        <v>671.1226516620276</v>
+        <v>628.736896058226</v>
       </c>
       <c r="L38" t="n">
-        <v>746.0000446151594</v>
+        <v>703.6142890113579</v>
       </c>
       <c r="M38" t="n">
-        <v>1252.814329855779</v>
+        <v>799.7559381656308</v>
       </c>
       <c r="N38" t="n">
-        <v>1352.380243799795</v>
+        <v>899.3218521096469</v>
       </c>
       <c r="O38" t="n">
-        <v>1440.996732174995</v>
+        <v>1406.136137350267</v>
       </c>
       <c r="P38" t="n">
-        <v>1502.655949440434</v>
+        <v>1912.950422590887</v>
       </c>
       <c r="Q38" t="n">
         <v>1939.74396452447</v>
@@ -7201,25 +7201,25 @@
         <v>2047.734485820687</v>
       </c>
       <c r="S38" t="n">
-        <v>2047.734485820687</v>
+        <v>1937.412710929428</v>
       </c>
       <c r="T38" t="n">
-        <v>2047.734485820687</v>
+        <v>1937.412710929428</v>
       </c>
       <c r="U38" t="n">
-        <v>2047.734485820687</v>
+        <v>1937.412710929428</v>
       </c>
       <c r="V38" t="n">
-        <v>1697.896931157167</v>
+        <v>1587.575156265908</v>
       </c>
       <c r="W38" t="n">
-        <v>1697.896931157167</v>
+        <v>1203.814855401077</v>
       </c>
       <c r="X38" t="n">
-        <v>1697.896931157167</v>
+        <v>803.1714575700296</v>
       </c>
       <c r="Y38" t="n">
-        <v>1697.896931157167</v>
+        <v>803.1714575700296</v>
       </c>
     </row>
     <row r="39">
@@ -7229,52 +7229,52 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>693.3622919504645</v>
+        <v>693.362291950465</v>
       </c>
       <c r="C39" t="n">
-        <v>559.3672206994102</v>
+        <v>559.3672206994107</v>
       </c>
       <c r="D39" t="n">
-        <v>442.4700629188026</v>
+        <v>442.470062918803</v>
       </c>
       <c r="E39" t="n">
-        <v>321.9772469111306</v>
+        <v>321.977246911131</v>
       </c>
       <c r="F39" t="n">
-        <v>213.0173670936352</v>
+        <v>213.0173670936356</v>
       </c>
       <c r="G39" t="n">
-        <v>106.6132951317839</v>
+        <v>106.6132951317841</v>
       </c>
       <c r="H39" t="n">
-        <v>41.52600178955921</v>
+        <v>41.5260017895592</v>
       </c>
       <c r="I39" t="n">
         <v>40.95468971641373</v>
       </c>
       <c r="J39" t="n">
-        <v>288.0337207758952</v>
+        <v>44.36531680126196</v>
       </c>
       <c r="K39" t="n">
-        <v>794.8480060165152</v>
+        <v>551.1796020418819</v>
       </c>
       <c r="L39" t="n">
-        <v>864.0078217690832</v>
+        <v>853.0009335508934</v>
       </c>
       <c r="M39" t="n">
-        <v>952.5535963043305</v>
+        <v>941.5467080861408</v>
       </c>
       <c r="N39" t="n">
-        <v>1049.278415206228</v>
+        <v>1038.271526988039</v>
       </c>
       <c r="O39" t="n">
-        <v>1128.763710718782</v>
+        <v>1117.756822500592</v>
       </c>
       <c r="P39" t="n">
-        <v>1559.349736467279</v>
+        <v>1624.571107741212</v>
       </c>
       <c r="Q39" t="n">
-        <v>1982.513114546754</v>
+        <v>2047.734485820687</v>
       </c>
       <c r="R39" t="n">
         <v>2047.734485820687</v>
@@ -7283,7 +7283,7 @@
         <v>1950.62992534436</v>
       </c>
       <c r="T39" t="n">
-        <v>1793.65021690497</v>
+        <v>1793.650216904971</v>
       </c>
       <c r="U39" t="n">
         <v>1596.337961353966</v>
@@ -7292,13 +7292,13 @@
         <v>1382.626434347</v>
       </c>
       <c r="W39" t="n">
-        <v>1169.393266083328</v>
+        <v>1169.393266083329</v>
       </c>
       <c r="X39" t="n">
-        <v>993.0672842222211</v>
+        <v>993.0672842222216</v>
       </c>
       <c r="Y39" t="n">
-        <v>833.6653245860512</v>
+        <v>833.6653245860516</v>
       </c>
     </row>
     <row r="40">
@@ -7308,46 +7308,46 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>561.2284607708722</v>
+        <v>372.3448898238206</v>
       </c>
       <c r="C40" t="n">
-        <v>390.1350883325887</v>
+        <v>372.3448898238206</v>
       </c>
       <c r="D40" t="n">
-        <v>390.1350883325887</v>
+        <v>372.3448898238206</v>
       </c>
       <c r="E40" t="n">
-        <v>390.1350883325887</v>
+        <v>372.3448898238206</v>
       </c>
       <c r="F40" t="n">
-        <v>390.1350883325887</v>
+        <v>207.7137639344119</v>
       </c>
       <c r="G40" t="n">
-        <v>223.3760141145905</v>
+        <v>40.95468971641373</v>
       </c>
       <c r="H40" t="n">
-        <v>78.13681242565039</v>
+        <v>40.95468971641373</v>
       </c>
       <c r="I40" t="n">
         <v>40.95468971641373</v>
       </c>
       <c r="J40" t="n">
-        <v>89.08209244837869</v>
+        <v>89.08209244837879</v>
       </c>
       <c r="K40" t="n">
-        <v>299.5805723521677</v>
+        <v>299.5805723521678</v>
       </c>
       <c r="L40" t="n">
-        <v>631.0694858385731</v>
+        <v>631.0694858385732</v>
       </c>
       <c r="M40" t="n">
-        <v>995.8170713922499</v>
+        <v>995.81707139225</v>
       </c>
       <c r="N40" t="n">
-        <v>1350.344553291355</v>
+        <v>1350.344553291356</v>
       </c>
       <c r="O40" t="n">
-        <v>1677.968604472192</v>
+        <v>1677.968604472193</v>
       </c>
       <c r="P40" t="n">
         <v>1941.884076695463</v>
@@ -7359,25 +7359,25 @@
         <v>2047.734485820687</v>
       </c>
       <c r="S40" t="n">
-        <v>2047.734485820687</v>
+        <v>1908.600684570748</v>
       </c>
       <c r="T40" t="n">
-        <v>2047.734485820687</v>
+        <v>1671.151208479591</v>
       </c>
       <c r="U40" t="n">
-        <v>1764.963137468072</v>
+        <v>1388.379860126976</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.077392407594</v>
+        <v>1114.494115066498</v>
       </c>
       <c r="W40" t="n">
-        <v>1212.007727916468</v>
+        <v>835.4244505753725</v>
       </c>
       <c r="X40" t="n">
-        <v>973.6638657761519</v>
+        <v>597.0805884350559</v>
       </c>
       <c r="Y40" t="n">
-        <v>748.9281671649165</v>
+        <v>372.3448898238206</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1171.800880579947</v>
+        <v>1280.789247152769</v>
       </c>
       <c r="C41" t="n">
-        <v>761.6762898932172</v>
+        <v>1280.789247152769</v>
       </c>
       <c r="D41" t="n">
-        <v>761.6762898932172</v>
+        <v>876.3253172458294</v>
       </c>
       <c r="E41" t="n">
-        <v>761.6762898932172</v>
+        <v>461.9851017627262</v>
       </c>
       <c r="F41" t="n">
-        <v>340.6458778469049</v>
+        <v>40.95468971641372</v>
       </c>
       <c r="G41" t="n">
-        <v>340.6458778469049</v>
+        <v>40.95468971641372</v>
       </c>
       <c r="H41" t="n">
-        <v>40.95468971641373</v>
+        <v>40.95468971641372</v>
       </c>
       <c r="I41" t="n">
-        <v>40.95468971641373</v>
+        <v>40.95468971641372</v>
       </c>
       <c r="J41" t="n">
-        <v>386.2529846935315</v>
+        <v>386.2529846935316</v>
       </c>
       <c r="K41" t="n">
-        <v>674.5469164517707</v>
+        <v>893.0672699341515</v>
       </c>
       <c r="L41" t="n">
-        <v>749.4243094049025</v>
+        <v>1399.881555174771</v>
       </c>
       <c r="M41" t="n">
-        <v>845.5659585591754</v>
+        <v>1496.023204329044</v>
       </c>
       <c r="N41" t="n">
-        <v>1352.380243799795</v>
+        <v>1595.58911827306</v>
       </c>
       <c r="O41" t="n">
-        <v>1440.996732174995</v>
+        <v>1684.205606648261</v>
       </c>
       <c r="P41" t="n">
-        <v>1502.655949440434</v>
+        <v>1745.864823913699</v>
       </c>
       <c r="Q41" t="n">
         <v>1939.74396452447</v>
       </c>
       <c r="R41" t="n">
-        <v>2047.734485820687</v>
+        <v>2047.734485820686</v>
       </c>
       <c r="S41" t="n">
-        <v>2047.734485820687</v>
+        <v>1937.412710929427</v>
       </c>
       <c r="T41" t="n">
-        <v>2047.734485820687</v>
+        <v>1720.000931741995</v>
       </c>
       <c r="U41" t="n">
-        <v>2047.734485820687</v>
+        <v>1463.028064533602</v>
       </c>
       <c r="V41" t="n">
-        <v>2047.734485820687</v>
+        <v>1280.789247152769</v>
       </c>
       <c r="W41" t="n">
-        <v>1663.974184955855</v>
+        <v>1280.789247152769</v>
       </c>
       <c r="X41" t="n">
-        <v>1663.974184955855</v>
+        <v>1280.789247152769</v>
       </c>
       <c r="Y41" t="n">
-        <v>1582.022060244437</v>
+        <v>1280.789247152769</v>
       </c>
     </row>
     <row r="42">
@@ -7466,58 +7466,58 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>693.362291950465</v>
+        <v>693.3622919504645</v>
       </c>
       <c r="C42" t="n">
-        <v>559.3672206994106</v>
+        <v>559.3672206994103</v>
       </c>
       <c r="D42" t="n">
-        <v>442.470062918803</v>
+        <v>442.4700629188026</v>
       </c>
       <c r="E42" t="n">
-        <v>321.977246911131</v>
+        <v>321.9772469111306</v>
       </c>
       <c r="F42" t="n">
-        <v>213.0173670936356</v>
+        <v>213.0173670936351</v>
       </c>
       <c r="G42" t="n">
-        <v>106.6132951317843</v>
+        <v>106.6132951317838</v>
       </c>
       <c r="H42" t="n">
-        <v>41.52600178955921</v>
+        <v>41.5260017895589</v>
       </c>
       <c r="I42" t="n">
-        <v>40.95468971641373</v>
+        <v>40.95468971641372</v>
       </c>
       <c r="J42" t="n">
         <v>288.0337207758952</v>
       </c>
       <c r="K42" t="n">
-        <v>794.8480060165152</v>
+        <v>794.848006016515</v>
       </c>
       <c r="L42" t="n">
         <v>1301.662291257135</v>
       </c>
       <c r="M42" t="n">
-        <v>1390.208065792383</v>
+        <v>1390.208065792382</v>
       </c>
       <c r="N42" t="n">
         <v>1486.93288469428</v>
       </c>
       <c r="O42" t="n">
-        <v>1566.418180206834</v>
+        <v>1909.355828103319</v>
       </c>
       <c r="P42" t="n">
-        <v>1622.382245574567</v>
+        <v>1965.319893471052</v>
       </c>
       <c r="Q42" t="n">
-        <v>1982.513114546754</v>
+        <v>1982.513114546753</v>
       </c>
       <c r="R42" t="n">
-        <v>2047.734485820687</v>
+        <v>2047.734485820686</v>
       </c>
       <c r="S42" t="n">
-        <v>1950.62992534436</v>
+        <v>1950.629925344359</v>
       </c>
       <c r="T42" t="n">
         <v>1793.65021690497</v>
@@ -7529,13 +7529,13 @@
         <v>1382.626434347</v>
       </c>
       <c r="W42" t="n">
-        <v>1169.393266083329</v>
+        <v>1169.393266083328</v>
       </c>
       <c r="X42" t="n">
-        <v>993.0672842222216</v>
+        <v>993.0672842222211</v>
       </c>
       <c r="Y42" t="n">
-        <v>833.6653245860516</v>
+        <v>833.6653245860512</v>
       </c>
     </row>
     <row r="43">
@@ -7545,40 +7545,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>637.7446407881014</v>
+        <v>383.3990055037895</v>
       </c>
       <c r="C43" t="n">
-        <v>466.6512683498179</v>
+        <v>383.3990055037895</v>
       </c>
       <c r="D43" t="n">
-        <v>307.156623672728</v>
+        <v>366.496630737503</v>
       </c>
       <c r="E43" t="n">
-        <v>307.156623672728</v>
+        <v>205.5858156058225</v>
       </c>
       <c r="F43" t="n">
-        <v>142.5254977833193</v>
+        <v>40.95468971641372</v>
       </c>
       <c r="G43" t="n">
-        <v>142.5254977833193</v>
+        <v>40.95468971641372</v>
       </c>
       <c r="H43" t="n">
-        <v>142.5254977833193</v>
+        <v>40.95468971641372</v>
       </c>
       <c r="I43" t="n">
-        <v>40.95468971641373</v>
+        <v>40.95468971641372</v>
       </c>
       <c r="J43" t="n">
-        <v>89.08209244837877</v>
+        <v>89.08209244837792</v>
       </c>
       <c r="K43" t="n">
-        <v>299.5805723521678</v>
+        <v>299.580572352167</v>
       </c>
       <c r="L43" t="n">
-        <v>631.0694858385732</v>
+        <v>631.0694858385724</v>
       </c>
       <c r="M43" t="n">
-        <v>995.8170713922499</v>
+        <v>995.8170713922492</v>
       </c>
       <c r="N43" t="n">
         <v>1350.344553291355</v>
@@ -7590,31 +7590,31 @@
         <v>1941.884076695463</v>
       </c>
       <c r="Q43" t="n">
-        <v>2047.734485820687</v>
+        <v>2047.734485820686</v>
       </c>
       <c r="R43" t="n">
-        <v>2047.734485820687</v>
+        <v>2047.734485820686</v>
       </c>
       <c r="S43" t="n">
-        <v>2047.734485820687</v>
+        <v>1869.905030553604</v>
       </c>
       <c r="T43" t="n">
-        <v>1810.285009729529</v>
+        <v>1869.905030553604</v>
       </c>
       <c r="U43" t="n">
-        <v>1527.513661376915</v>
+        <v>1587.133682200989</v>
       </c>
       <c r="V43" t="n">
-        <v>1527.513661376915</v>
+        <v>1313.247937140511</v>
       </c>
       <c r="W43" t="n">
-        <v>1248.443996885789</v>
+        <v>1034.178272649386</v>
       </c>
       <c r="X43" t="n">
-        <v>1010.100134745473</v>
+        <v>795.8344105090691</v>
       </c>
       <c r="Y43" t="n">
-        <v>785.3644361342373</v>
+        <v>571.0987118978338</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1154.886268864106</v>
+        <v>1152.715737012686</v>
       </c>
       <c r="C44" t="n">
-        <v>1154.886268864106</v>
+        <v>876.3253172458294</v>
       </c>
       <c r="D44" t="n">
-        <v>1154.886268864106</v>
+        <v>876.3253172458294</v>
       </c>
       <c r="E44" t="n">
-        <v>1154.737524722578</v>
+        <v>461.9851017627262</v>
       </c>
       <c r="F44" t="n">
-        <v>733.707112676266</v>
+        <v>40.95468971641372</v>
       </c>
       <c r="G44" t="n">
-        <v>327.3287545781499</v>
+        <v>40.95468971641372</v>
       </c>
       <c r="H44" t="n">
-        <v>40.48643694606873</v>
+        <v>40.95468971641372</v>
       </c>
       <c r="I44" t="n">
-        <v>44.64574590746543</v>
+        <v>40.95468971641372</v>
       </c>
       <c r="J44" t="n">
-        <v>167.5334271492898</v>
+        <v>386.2529846935316</v>
       </c>
       <c r="K44" t="n">
-        <v>372.2593058752964</v>
+        <v>434.5624627946201</v>
       </c>
       <c r="L44" t="n">
-        <v>641.1850750879078</v>
+        <v>509.4398557477519</v>
       </c>
       <c r="M44" t="n">
-        <v>953.2429319501306</v>
+        <v>605.581504902025</v>
       </c>
       <c r="N44" t="n">
-        <v>1272.218803576257</v>
+        <v>705.1474188460411</v>
       </c>
       <c r="O44" t="n">
-        <v>1568.017893256777</v>
+        <v>995.8416641998139</v>
       </c>
       <c r="P44" t="n">
-        <v>1806.502667397418</v>
+        <v>1502.655949440434</v>
       </c>
       <c r="Q44" t="n">
-        <v>1966.084838463273</v>
+        <v>1939.74396452447</v>
       </c>
       <c r="R44" t="n">
-        <v>2024.321847303436</v>
+        <v>2047.734485820686</v>
       </c>
       <c r="S44" t="n">
-        <v>2024.321847303436</v>
+        <v>1937.412710929427</v>
       </c>
       <c r="T44" t="n">
-        <v>1812.402164354919</v>
+        <v>1937.412710929427</v>
       </c>
       <c r="U44" t="n">
-        <v>1555.529666695153</v>
+        <v>1937.412710929427</v>
       </c>
       <c r="V44" t="n">
-        <v>1555.529666695153</v>
+        <v>1937.412710929427</v>
       </c>
       <c r="W44" t="n">
-        <v>1555.529666695153</v>
+        <v>1553.652410064596</v>
       </c>
       <c r="X44" t="n">
-        <v>1154.886268864106</v>
+        <v>1553.652410064596</v>
       </c>
       <c r="Y44" t="n">
-        <v>1154.886268864106</v>
+        <v>1152.715737012686</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>685.1682898090093</v>
+        <v>693.3622919504646</v>
       </c>
       <c r="C45" t="n">
-        <v>551.1732185579549</v>
+        <v>559.3672206994103</v>
       </c>
       <c r="D45" t="n">
-        <v>434.2760607773473</v>
+        <v>442.4700629188027</v>
       </c>
       <c r="E45" t="n">
-        <v>313.7832447696753</v>
+        <v>321.9772469111307</v>
       </c>
       <c r="F45" t="n">
-        <v>204.8233649521799</v>
+        <v>213.0173670936353</v>
       </c>
       <c r="G45" t="n">
-        <v>99.09057352692763</v>
+        <v>106.6132951317839</v>
       </c>
       <c r="H45" t="n">
-        <v>40.48643694606873</v>
+        <v>41.52600178955919</v>
       </c>
       <c r="I45" t="n">
-        <v>62.57863487475247</v>
+        <v>40.95468971641372</v>
       </c>
       <c r="J45" t="n">
-        <v>371.8168719145381</v>
+        <v>288.0337207758952</v>
       </c>
       <c r="K45" t="n">
-        <v>515.5388644458296</v>
+        <v>794.848006016515</v>
       </c>
       <c r="L45" t="n">
-        <v>727.551448967487</v>
+        <v>864.007821769083</v>
       </c>
       <c r="M45" t="n">
-        <v>982.799666726455</v>
+        <v>1327.175556685094</v>
       </c>
       <c r="N45" t="n">
-        <v>1250.639046485604</v>
+        <v>1423.900375586992</v>
       </c>
       <c r="O45" t="n">
-        <v>1486.660735239584</v>
+        <v>1503.385671099546</v>
       </c>
       <c r="P45" t="n">
-        <v>1668.259056675767</v>
+        <v>1559.349736467279</v>
       </c>
       <c r="Q45" t="n">
-        <v>1918.251596225539</v>
+        <v>1982.513114546753</v>
       </c>
       <c r="R45" t="n">
-        <v>2024.321847303436</v>
+        <v>2047.734485820686</v>
       </c>
       <c r="S45" t="n">
-        <v>1939.686028373151</v>
+        <v>1950.629925344359</v>
       </c>
       <c r="T45" t="n">
-        <v>1785.412051570318</v>
+        <v>1793.65021690497</v>
       </c>
       <c r="U45" t="n">
-        <v>1588.143959212511</v>
+        <v>1596.337961353966</v>
       </c>
       <c r="V45" t="n">
-        <v>1374.432432205545</v>
+        <v>1382.626434347</v>
       </c>
       <c r="W45" t="n">
-        <v>1161.199263941873</v>
+        <v>1169.393266083328</v>
       </c>
       <c r="X45" t="n">
-        <v>984.8732820807659</v>
+        <v>993.0672842222212</v>
       </c>
       <c r="Y45" t="n">
-        <v>825.4713224445959</v>
+        <v>833.6653245860513</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>915.7041785524068</v>
+        <v>644.5709730843455</v>
       </c>
       <c r="C46" t="n">
-        <v>915.7041785524068</v>
+        <v>473.477600646062</v>
       </c>
       <c r="D46" t="n">
-        <v>756.2095338753168</v>
+        <v>313.982955968972</v>
       </c>
       <c r="E46" t="n">
-        <v>596.1959494177233</v>
+        <v>313.982955968972</v>
       </c>
       <c r="F46" t="n">
-        <v>431.5648235283147</v>
+        <v>309.2845720013174</v>
       </c>
       <c r="G46" t="n">
-        <v>265.3685283624266</v>
+        <v>142.5254977833193</v>
       </c>
       <c r="H46" t="n">
-        <v>125.1329440640648</v>
+        <v>142.5254977833193</v>
       </c>
       <c r="I46" t="n">
-        <v>40.48643694606873</v>
+        <v>40.95468971641372</v>
       </c>
       <c r="J46" t="n">
-        <v>127.6105279304289</v>
+        <v>89.08209244837792</v>
       </c>
       <c r="K46" t="n">
-        <v>402.1925459421785</v>
+        <v>299.580572352167</v>
       </c>
       <c r="L46" t="n">
-        <v>815.6863250168146</v>
+        <v>631.0694858385724</v>
       </c>
       <c r="M46" t="n">
-        <v>1029.170353416904</v>
+        <v>995.8170713922492</v>
       </c>
       <c r="N46" t="n">
-        <v>1136.070278545364</v>
+        <v>1350.344553291355</v>
       </c>
       <c r="O46" t="n">
-        <v>1541.657620062866</v>
+        <v>1677.968604472192</v>
       </c>
       <c r="P46" t="n">
-        <v>1872.284155743751</v>
+        <v>1941.884076695463</v>
       </c>
       <c r="Q46" t="n">
-        <v>2024.321847303436</v>
+        <v>2047.734485820686</v>
       </c>
       <c r="R46" t="n">
-        <v>1986.445114104106</v>
+        <v>2047.734485820686</v>
       </c>
       <c r="S46" t="n">
-        <v>1986.445114104106</v>
+        <v>1869.905030553604</v>
       </c>
       <c r="T46" t="n">
-        <v>1751.400239417419</v>
+        <v>1632.455554462447</v>
       </c>
       <c r="U46" t="n">
-        <v>1468.65958810401</v>
+        <v>1349.684206109832</v>
       </c>
       <c r="V46" t="n">
-        <v>1194.773843043532</v>
+        <v>1349.684206109832</v>
       </c>
       <c r="W46" t="n">
-        <v>915.7041785524068</v>
+        <v>1070.614541618706</v>
       </c>
       <c r="X46" t="n">
-        <v>915.7041785524068</v>
+        <v>832.2706794783899</v>
       </c>
       <c r="Y46" t="n">
-        <v>915.7041785524068</v>
+        <v>832.2706794783899</v>
       </c>
     </row>
   </sheetData>
@@ -9169,10 +9169,10 @@
         <v>40.5121283012307</v>
       </c>
       <c r="L17" t="n">
-        <v>35.16270217958864</v>
+        <v>35.16270217958865</v>
       </c>
       <c r="M17" t="n">
-        <v>26.16960234776164</v>
+        <v>26.16960234776165</v>
       </c>
       <c r="N17" t="n">
         <v>24.70558680915735</v>
@@ -9181,7 +9181,7 @@
         <v>28.78411920260946</v>
       </c>
       <c r="P17" t="n">
-        <v>38.68062560122957</v>
+        <v>38.68062560122958</v>
       </c>
       <c r="Q17" t="n">
         <v>48.7545716309821</v>
@@ -9251,7 +9251,7 @@
         <v>11.70671018907476</v>
       </c>
       <c r="M18" t="n">
-        <v>5.742459823057352</v>
+        <v>5.742459823057359</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -9400,13 +9400,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>46.49684975225374</v>
+        <v>40.88018142109519</v>
       </c>
       <c r="K20" t="n">
         <v>40.5121283012307</v>
       </c>
       <c r="L20" t="n">
-        <v>41.01586180890124</v>
+        <v>35.16270217958865</v>
       </c>
       <c r="M20" t="n">
         <v>26.16960234776165</v>
@@ -9421,10 +9421,10 @@
         <v>38.68062560122958</v>
       </c>
       <c r="Q20" t="n">
-        <v>54.60773126029468</v>
+        <v>48.7545716309821</v>
       </c>
       <c r="R20" t="n">
-        <v>69.15348079248855</v>
+        <v>63.30032116317597</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9479,7 +9479,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J21" t="n">
-        <v>37.66283444705311</v>
+        <v>32.04616611589456</v>
       </c>
       <c r="K21" t="n">
         <v>22.79957383374449</v>
@@ -9497,13 +9497,13 @@
         <v>9.089916217646909</v>
       </c>
       <c r="P21" t="n">
-        <v>21.0576004201214</v>
+        <v>15.20444079080882</v>
       </c>
       <c r="Q21" t="n">
-        <v>36.43841508702235</v>
+        <v>30.58525545770977</v>
       </c>
       <c r="R21" t="n">
-        <v>52.15490383865018</v>
+        <v>46.3017442093376</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9564,16 +9564,16 @@
         <v>32.32909088142202</v>
       </c>
       <c r="L22" t="n">
-        <v>34.98907547202448</v>
+        <v>29.1359158427119</v>
       </c>
       <c r="M22" t="n">
-        <v>35.23996376826248</v>
+        <v>29.38680413894989</v>
       </c>
       <c r="N22" t="n">
-        <v>31.32676883250548</v>
+        <v>25.47360920319289</v>
       </c>
       <c r="O22" t="n">
-        <v>37.45556946518604</v>
+        <v>31.8389011340275</v>
       </c>
       <c r="P22" t="n">
         <v>35.04175936076656</v>
@@ -9640,7 +9640,7 @@
         <v>330.076592815888</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>463.1361688278096</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -9652,16 +9652,16 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>422.4220170357775</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>340.4298478631832</v>
+        <v>449.6515838133144</v>
       </c>
       <c r="Q23" t="n">
-        <v>414.4388617681339</v>
+        <v>264.5029740259702</v>
       </c>
       <c r="R23" t="n">
-        <v>19.19711694941876</v>
+        <v>19.19711694941873</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9719,10 +9719,10 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>474.0730063659903</v>
+        <v>474.0730063659904</v>
       </c>
       <c r="L24" t="n">
-        <v>442.075221705103</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9731,16 +9731,16 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>235.0116320772158</v>
       </c>
       <c r="P24" t="n">
-        <v>182.4604998660058</v>
+        <v>455.4042624978656</v>
       </c>
       <c r="Q24" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R24" t="n">
-        <v>88.85829947169823</v>
+        <v>22.97812646772533</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9880,19 +9880,19 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>238.9496857246541</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>414.8208445316637</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>204.1189464430032</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>449.6515838133145</v>
       </c>
       <c r="Q26" t="n">
         <v>414.4388617681339</v>
@@ -9956,10 +9956,10 @@
         <v>246.129700984478</v>
       </c>
       <c r="K27" t="n">
-        <v>474.0730063659903</v>
+        <v>474.0730063659904</v>
       </c>
       <c r="L27" t="n">
-        <v>333.0726237491426</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>455.4042624978656</v>
+        <v>444.2861935906033</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R27" t="n">
-        <v>88.85829947169823</v>
+        <v>22.97812646772533</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10032,7 +10032,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>65.65794306195595</v>
+        <v>65.65794306195599</v>
       </c>
       <c r="K28" t="n">
         <v>208.3638319047618</v>
@@ -10111,25 +10111,25 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K29" t="n">
-        <v>135.8032579005024</v>
+        <v>196.1357911753597</v>
       </c>
       <c r="L29" t="n">
-        <v>436.2998911994829</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>414.8208445316636</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>411.3619912086908</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>422.4220170357776</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>449.6515838133145</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -10190,13 +10190,13 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K30" t="n">
-        <v>474.0730063659903</v>
+        <v>474.0730063659904</v>
       </c>
       <c r="L30" t="n">
-        <v>235.0116320772159</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>455.4042624978656</v>
+        <v>378.4060205866305</v>
       </c>
       <c r="Q30" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R30" t="n">
-        <v>22.97812646772535</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10278,7 +10278,7 @@
         <v>317.1506174091142</v>
       </c>
       <c r="M31" t="n">
-        <v>348.4508580952378</v>
+        <v>348.4508580952379</v>
       </c>
       <c r="N31" t="n">
         <v>335.3881832803894</v>
@@ -10348,10 +10348,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>330.076592815888</v>
+        <v>180.1407050737245</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>463.1361688278096</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -10363,16 +10363,16 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>204.1189464430034</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>449.6515838133143</v>
+        <v>449.6515838133145</v>
       </c>
       <c r="Q32" t="n">
         <v>414.4388617681339</v>
       </c>
       <c r="R32" t="n">
-        <v>128.2784515920617</v>
+        <v>19.19711694941873</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10430,22 +10430,22 @@
         <v>246.129700984478</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>474.0730063659904</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>378.4060205866307</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>397.0747644547554</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>455.4042624978656</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>410.0708656603775</v>
@@ -10506,7 +10506,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>65.65794306195585</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K34" t="n">
         <v>208.3638319047618</v>
@@ -10588,7 +10588,7 @@
         <v>330.076592815888</v>
       </c>
       <c r="K35" t="n">
-        <v>204.1189464430033</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -10597,13 +10597,13 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>231.3485132205395</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>422.4220170357773</v>
       </c>
       <c r="P35" t="n">
-        <v>449.6515838133143</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>414.4388617681339</v>
@@ -10667,13 +10667,13 @@
         <v>246.129700984478</v>
       </c>
       <c r="K36" t="n">
-        <v>474.0730063659903</v>
+        <v>450.5323579621634</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>378.4060205866307</v>
+        <v>422.4934451569418</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>455.4042624978655</v>
       </c>
       <c r="Q36" t="n">
-        <v>410.0708656603775</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>88.85829947169823</v>
+        <v>22.97812646772533</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10752,13 +10752,13 @@
         <v>317.1506174091142</v>
       </c>
       <c r="M37" t="n">
-        <v>348.4508580952379</v>
+        <v>348.4508580952371</v>
       </c>
       <c r="N37" t="n">
         <v>335.3881832803894</v>
       </c>
       <c r="O37" t="n">
-        <v>318.2573327462022</v>
+        <v>318.2573327462026</v>
       </c>
       <c r="P37" t="n">
         <v>263.5328115890082</v>
@@ -10825,25 +10825,25 @@
         <v>330.076592815888</v>
       </c>
       <c r="K38" t="n">
-        <v>238.9496857246542</v>
+        <v>196.1357911753595</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>414.8208445316636</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>422.4220170357775</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>449.6515838133143</v>
       </c>
       <c r="Q38" t="n">
-        <v>414.4388617681339</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>128.2784515920617</v>
@@ -10901,13 +10901,13 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J39" t="n">
-        <v>246.129700984478</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>474.0730063659903</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>235.0116320772156</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>378.4060205866307</v>
+        <v>455.4042624978656</v>
       </c>
       <c r="Q39" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R39" t="n">
-        <v>88.85829947169823</v>
+        <v>22.97812646772533</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10980,7 +10980,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>65.65794306195585</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K40" t="n">
         <v>208.3638319047618</v>
@@ -11001,7 +11001,7 @@
         <v>263.5328115890082</v>
       </c>
       <c r="Q40" t="n">
-        <v>127.5494547533709</v>
+        <v>127.5494547533706</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11062,16 +11062,16 @@
         <v>330.076592815888</v>
       </c>
       <c r="K41" t="n">
-        <v>242.408539047627</v>
+        <v>463.1361688278094</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>436.2998911994828</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>411.3619912086908</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
@@ -11080,7 +11080,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>414.4388617681339</v>
+        <v>168.7733319971587</v>
       </c>
       <c r="R41" t="n">
         <v>128.2784515920617</v>
@@ -11141,10 +11141,10 @@
         <v>246.129700984478</v>
       </c>
       <c r="K42" t="n">
-        <v>474.0730063659903</v>
+        <v>474.0730063659902</v>
       </c>
       <c r="L42" t="n">
-        <v>442.075221705103</v>
+        <v>442.0752217051028</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11153,13 +11153,13 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>346.4016645419051</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>346.4016645419052</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>88.85829947169823</v>
@@ -11217,7 +11217,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>65.65794306195595</v>
+        <v>65.65794306195508</v>
       </c>
       <c r="K43" t="n">
         <v>208.3638319047618</v>
@@ -11226,7 +11226,7 @@
         <v>317.1506174091142</v>
       </c>
       <c r="M43" t="n">
-        <v>348.4508580952378</v>
+        <v>348.4508580952379</v>
       </c>
       <c r="N43" t="n">
         <v>335.3881832803894</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -11311,16 +11311,16 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>204.1189464430025</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>449.6515838133142</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11378,13 +11378,13 @@
         <v>246.129700984478</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>474.0730063659902</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>378.4060205866302</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -11396,7 +11396,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>150.3193388037195</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R45" t="n">
         <v>88.85829947169823</v>
@@ -11454,7 +11454,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>65.65794306195595</v>
+        <v>65.65794306195508</v>
       </c>
       <c r="K46" t="n">
         <v>208.3638319047618</v>
@@ -11463,10 +11463,10 @@
         <v>317.1506174091142</v>
       </c>
       <c r="M46" t="n">
-        <v>108.3233934631252</v>
+        <v>348.4508580952379</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>335.3881832803894</v>
       </c>
       <c r="O46" t="n">
         <v>318.2573327462026</v>
@@ -23974,13 +23974,13 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D20" t="n">
-        <v>394.5661309785575</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E20" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F20" t="n">
-        <v>411.6646449243508</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G20" t="n">
         <v>404.2587463296498</v>
@@ -24022,13 +24022,13 @@
         <v>125.2176300895691</v>
       </c>
       <c r="T20" t="n">
-        <v>212.4579385990033</v>
+        <v>218.3110982283159</v>
       </c>
       <c r="U20" t="n">
         <v>254.4593064281693</v>
       </c>
       <c r="V20" t="n">
-        <v>340.4860194875715</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W20" t="n">
         <v>379.9226978561831</v>
@@ -24059,7 +24059,7 @@
         <v>119.2878878475953</v>
       </c>
       <c r="F21" t="n">
-        <v>102.7148180178219</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G21" t="n">
         <v>105.7156871369127</v>
@@ -24107,13 +24107,13 @@
         <v>195.3638471990916</v>
       </c>
       <c r="V21" t="n">
-        <v>205.7212521075839</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W21" t="n">
-        <v>205.2476769517219</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X21" t="n">
-        <v>168.7095624131835</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y21" t="n">
         <v>157.8079400398083</v>
@@ -24126,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.9695497007914</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C22" t="n">
-        <v>164.2269757124021</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D22" t="n">
         <v>157.8996982303191</v>
@@ -24177,13 +24177,13 @@
         <v>76.71023806313595</v>
       </c>
       <c r="S22" t="n">
-        <v>175.6864990079295</v>
+        <v>181.5396586372421</v>
       </c>
       <c r="T22" t="n">
         <v>236.4206224485193</v>
       </c>
       <c r="U22" t="n">
-        <v>274.1076536370303</v>
+        <v>279.9608132663429</v>
       </c>
       <c r="V22" t="n">
         <v>271.1468876098733</v>
@@ -24208,25 +24208,25 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>52.62634730708447</v>
       </c>
       <c r="E23" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F23" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>323.0278353643141</v>
+        <v>403.5566476813898</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>296.6942762491862</v>
       </c>
       <c r="I23" t="n">
-        <v>43.68370348170939</v>
+        <v>43.68370348170937</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24259,13 +24259,13 @@
         <v>109.2185571423462</v>
       </c>
       <c r="T23" t="n">
-        <v>215.2376613955581</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>254.4031385363085</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>379.9226978561831</v>
@@ -24274,7 +24274,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="24">
@@ -24369,13 +24369,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.0914834758182</v>
@@ -24411,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>62.54951259296342</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>65.43754741464397</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>149.7245147047684</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24429,10 +24429,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="26">
@@ -24457,13 +24457,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>403.5566476813898</v>
+        <v>131.5206419742578</v>
       </c>
       <c r="H26" t="n">
-        <v>296.6942762491862</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>43.68370348170939</v>
+        <v>43.68370348170937</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24496,7 +24496,7 @@
         <v>109.2185571423462</v>
       </c>
       <c r="T26" t="n">
-        <v>26.43007729542309</v>
+        <v>215.2376613955581</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -24505,7 +24505,7 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X26" t="n">
         <v>396.636963852737</v>
@@ -24603,25 +24603,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>42.99512969246889</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>143.7868096720507</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>100.5550999862365</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>62.54951259296342</v>
+        <v>62.54951259296341</v>
       </c>
       <c r="S28" t="n">
         <v>176.0511607144114</v>
@@ -24657,16 +24657,16 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>279.9436348690883</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>222.7833969602326</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24685,7 +24685,7 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D29" t="n">
-        <v>347.0941055171822</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -24694,13 +24694,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>119.6213385919924</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>296.6942762491862</v>
       </c>
       <c r="I29" t="n">
-        <v>43.68370348170939</v>
+        <v>43.68370348170937</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24733,10 +24733,10 @@
         <v>109.2185571423462</v>
       </c>
       <c r="T29" t="n">
-        <v>215.2376613955581</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>254.4031385363085</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>346.3391791168841</v>
@@ -24840,25 +24840,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F31" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G31" t="n">
-        <v>165.0914834758182</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>143.7868096720507</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>100.5550999862365</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>62.54951259296341</v>
       </c>
       <c r="S31" t="n">
         <v>176.0511607144114</v>
       </c>
       <c r="T31" t="n">
-        <v>235.0749813302457</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>134.6174231598696</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>42.99512969246891</v>
       </c>
     </row>
     <row r="32">
@@ -24922,22 +24922,22 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D32" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>333.7451434440034</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>175.1951321125336</v>
       </c>
       <c r="H32" t="n">
-        <v>296.6942762491862</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>43.68370348170939</v>
+        <v>43.68370348170937</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24967,7 +24967,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>109.2185571423462</v>
       </c>
       <c r="T32" t="n">
         <v>215.2376613955581</v>
@@ -24976,13 +24976,13 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X32" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>396.9273063213908</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C34" t="n">
         <v>169.3824387139007</v>
@@ -25086,10 +25086,10 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F34" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.0914834758182</v>
+        <v>20.15723499287961</v>
       </c>
       <c r="H34" t="n">
         <v>143.7868096720507</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>62.54951259296341</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>176.0511607144114</v>
       </c>
       <c r="T34" t="n">
-        <v>116.504319524026</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25159,7 +25159,7 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D35" t="n">
-        <v>400.41929060787</v>
+        <v>152.6592896653995</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -25168,13 +25168,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G35" t="n">
-        <v>403.5566476813898</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>296.6942762491862</v>
       </c>
       <c r="I35" t="n">
-        <v>43.68370348170939</v>
+        <v>43.68370348170937</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25216,10 +25216,10 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X35" t="n">
-        <v>125.2430130850591</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y35" t="n">
         <v>396.9273063213908</v>
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>47.7523071587139</v>
       </c>
       <c r="H37" t="n">
         <v>143.7868096720507</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>100.5550999862365</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,19 +25359,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>62.54951259296342</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>176.0511607144114</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>84.12866752452325</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>279.9436348690883</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="38">
@@ -25396,22 +25396,22 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>59.15886083458241</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>287.3143167662217</v>
+        <v>296.6942762491862</v>
       </c>
       <c r="I38" t="n">
-        <v>43.68370348170939</v>
+        <v>43.68370348170937</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,7 +25441,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>109.2185571423462</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>215.2376613955581</v>
@@ -25453,10 +25453,10 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>396.9273063213908</v>
@@ -25548,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D40" t="n">
         <v>157.8996982303191</v>
@@ -25560,16 +25560,16 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F40" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>143.7868096720507</v>
       </c>
       <c r="I40" t="n">
-        <v>63.74479850409219</v>
+        <v>100.5550999862365</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>62.54951259296342</v>
+        <v>62.54951259296341</v>
       </c>
       <c r="S40" t="n">
-        <v>176.0511607144114</v>
+        <v>38.30869747697216</v>
       </c>
       <c r="T40" t="n">
-        <v>235.0749813302457</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25627,16 +25627,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D41" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -25645,10 +25645,10 @@
         <v>403.5566476813898</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>296.6942762491862</v>
       </c>
       <c r="I41" t="n">
-        <v>43.68370348170939</v>
+        <v>43.68370348170937</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,25 +25678,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>109.2185571423462</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>215.2376613955581</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>254.4031385363085</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>346.3391791168841</v>
+        <v>165.9227499098589</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X41" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y41" t="n">
-        <v>315.7947028570865</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="42">
@@ -25785,16 +25785,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>39.67911193742941</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>141.1663472116955</v>
       </c>
       <c r="E43" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>143.7868096720507</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>100.5550999862365</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,19 +25833,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>62.54951259296342</v>
+        <v>62.54951259296341</v>
       </c>
       <c r="S43" t="n">
-        <v>176.0511607144114</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>235.0749813302457</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25867,25 +25867,25 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C44" t="n">
-        <v>406.0233447798626</v>
+        <v>132.3968292106745</v>
       </c>
       <c r="D44" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E44" t="n">
-        <v>410.0495566281601</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>403.5566476813898</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>296.6942762491862</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>43.68370348170937</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,25 +25915,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>80.91481491188679</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>215.2376613955581</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>254.4031385363085</v>
       </c>
       <c r="V44" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W44" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y44" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26022,25 +26022,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0.888258367346225</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>158.3334145025366</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>143.7868096720507</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>62.54951259296341</v>
       </c>
       <c r="S46" t="n">
-        <v>166.3415337283568</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26082,13 +26082,13 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>222.4883416251229</v>
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>150566.9858933647</v>
+        <v>145414.8107476125</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>586960.8345575446</v>
+        <v>586960.8345575447</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>586960.8345575446</v>
+        <v>586960.8345575447</v>
       </c>
     </row>
     <row r="12">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>586960.8345575446</v>
+        <v>586960.8345575444</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>563764.7741267745</v>
+        <v>586960.8345575444</v>
       </c>
     </row>
   </sheetData>
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>36376.70456762835</v>
+        <v>36376.70456762834</v>
       </c>
       <c r="C2" t="n">
         <v>36376.70456762835</v>
@@ -26331,7 +26331,7 @@
         <v>37640.7190524379</v>
       </c>
       <c r="H2" t="n">
-        <v>38884.36212088453</v>
+        <v>37640.7190524379</v>
       </c>
       <c r="I2" t="n">
         <v>148734.8527505344</v>
@@ -26340,22 +26340,22 @@
         <v>148734.8527505344</v>
       </c>
       <c r="K2" t="n">
+        <v>148734.8527505343</v>
+      </c>
+      <c r="L2" t="n">
+        <v>148734.8527505343</v>
+      </c>
+      <c r="M2" t="n">
+        <v>148734.8527505343</v>
+      </c>
+      <c r="N2" t="n">
         <v>148734.8527505344</v>
-      </c>
-      <c r="L2" t="n">
-        <v>148734.8527505344</v>
-      </c>
-      <c r="M2" t="n">
-        <v>148734.8527505344</v>
-      </c>
-      <c r="N2" t="n">
-        <v>148734.8527505345</v>
       </c>
       <c r="O2" t="n">
         <v>148734.8527505345</v>
       </c>
       <c r="P2" t="n">
-        <v>151118.1887321428</v>
+        <v>148734.8527505344</v>
       </c>
     </row>
     <row r="3">
@@ -26383,10 +26383,10 @@
         <v>73928.06313849827</v>
       </c>
       <c r="H3" t="n">
-        <v>1579.2351464252</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>266042.8062647221</v>
+        <v>267599.2843265086</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>205640.1544825709</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26435,7 +26435,7 @@
         <v>7398.840888673562</v>
       </c>
       <c r="H4" t="n">
-        <v>7996.067026362456</v>
+        <v>7398.840888673562</v>
       </c>
       <c r="I4" t="n">
         <v>42043.63182108721</v>
@@ -26444,22 +26444,22 @@
         <v>42043.63182108721</v>
       </c>
       <c r="K4" t="n">
-        <v>42043.63182108722</v>
+        <v>42043.63182108721</v>
       </c>
       <c r="L4" t="n">
-        <v>42043.63182108722</v>
+        <v>42043.63182108721</v>
       </c>
       <c r="M4" t="n">
-        <v>42043.63182108721</v>
+        <v>42043.6318210872</v>
       </c>
       <c r="N4" t="n">
         <v>42043.63182108721</v>
       </c>
       <c r="O4" t="n">
-        <v>42043.63182108721</v>
+        <v>42043.6318210872</v>
       </c>
       <c r="P4" t="n">
-        <v>10103.59721484552</v>
+        <v>42043.6318210872</v>
       </c>
     </row>
     <row r="5">
@@ -26487,7 +26487,7 @@
         <v>2072.872956614403</v>
       </c>
       <c r="H5" t="n">
-        <v>2428.745062076608</v>
+        <v>2072.872956614403</v>
       </c>
       <c r="I5" t="n">
         <v>37005.74258594032</v>
@@ -26511,7 +26511,7 @@
         <v>37005.74258594032</v>
       </c>
       <c r="P5" t="n">
-        <v>43385.32273194158</v>
+        <v>37005.74258594032</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-14226.69089726487</v>
+        <v>-15613.00346380527</v>
       </c>
       <c r="C6" t="n">
-        <v>-14226.69089726487</v>
+        <v>-15613.00346380527</v>
       </c>
       <c r="D6" t="n">
-        <v>-14226.69089726488</v>
+        <v>-15613.00346380525</v>
       </c>
       <c r="E6" t="n">
-        <v>19400.90910273512</v>
+        <v>18014.59653619473</v>
       </c>
       <c r="F6" t="n">
-        <v>19400.90910273512</v>
+        <v>18014.59653619474</v>
       </c>
       <c r="G6" t="n">
-        <v>-45759.05793134832</v>
+        <v>-47136.94373465666</v>
       </c>
       <c r="H6" t="n">
-        <v>26880.31488602027</v>
+        <v>26791.11940384161</v>
       </c>
       <c r="I6" t="n">
-        <v>-196357.3279212152</v>
+        <v>-198551.0642283228</v>
       </c>
       <c r="J6" t="n">
-        <v>69685.47834350684</v>
+        <v>69048.22009818583</v>
       </c>
       <c r="K6" t="n">
-        <v>69685.4783435069</v>
+        <v>69048.2200981858</v>
       </c>
       <c r="L6" t="n">
-        <v>69685.47834350684</v>
+        <v>69048.22009818577</v>
       </c>
       <c r="M6" t="n">
-        <v>69685.47834350684</v>
+        <v>69048.22009818579</v>
       </c>
       <c r="N6" t="n">
-        <v>69685.47834350693</v>
+        <v>69048.22009818583</v>
       </c>
       <c r="O6" t="n">
-        <v>69685.47834350693</v>
+        <v>69048.22009818599</v>
       </c>
       <c r="P6" t="n">
-        <v>-108010.8856972152</v>
+        <v>69048.22009818588</v>
       </c>
     </row>
   </sheetData>
@@ -26758,28 +26758,28 @@
         <v>95.08591544102765</v>
       </c>
       <c r="I3" t="n">
-        <v>269.7329541956827</v>
+        <v>269.7329541956829</v>
       </c>
       <c r="J3" t="n">
-        <v>269.7329541956827</v>
+        <v>269.7329541956829</v>
       </c>
       <c r="K3" t="n">
-        <v>269.7329541956827</v>
+        <v>269.7329541956829</v>
       </c>
       <c r="L3" t="n">
-        <v>269.7329541956827</v>
+        <v>269.7329541956829</v>
       </c>
       <c r="M3" t="n">
-        <v>269.7329541956827</v>
+        <v>269.7329541956829</v>
       </c>
       <c r="N3" t="n">
-        <v>269.7329541956827</v>
+        <v>269.7329541956829</v>
       </c>
       <c r="O3" t="n">
-        <v>269.7329541956827</v>
+        <v>269.7329541956829</v>
       </c>
       <c r="P3" t="n">
-        <v>578.6986538040985</v>
+        <v>269.7329541956829</v>
       </c>
     </row>
     <row r="4">
@@ -26807,31 +26807,31 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>5.853159629312586</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>511.9336214551716</v>
+        <v>511.9336214551717</v>
       </c>
       <c r="J4" t="n">
-        <v>511.9336214551716</v>
+        <v>511.9336214551717</v>
       </c>
       <c r="K4" t="n">
-        <v>511.9336214551716</v>
+        <v>511.9336214551717</v>
       </c>
       <c r="L4" t="n">
-        <v>511.9336214551716</v>
+        <v>511.9336214551717</v>
       </c>
       <c r="M4" t="n">
-        <v>511.9336214551716</v>
+        <v>511.9336214551715</v>
       </c>
       <c r="N4" t="n">
         <v>511.9336214551716</v>
       </c>
       <c r="O4" t="n">
-        <v>511.9336214551716</v>
+        <v>511.9336214551715</v>
       </c>
       <c r="P4" t="n">
-        <v>506.0804618258591</v>
+        <v>511.9336214551715</v>
       </c>
     </row>
   </sheetData>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>174.6470387546551</v>
+        <v>174.6470387546552</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>308.9656996084158</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27029,10 +27029,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>5.853159629312586</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>506.0804618258591</v>
+        <v>511.9336214551717</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27275,7 +27275,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>5.853159629312586</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -32226,13 +32226,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.3822549364463421</v>
+        <v>0.382254936446342</v>
       </c>
       <c r="H17" t="n">
-        <v>3.914768367881102</v>
+        <v>3.914768367881101</v>
       </c>
       <c r="I17" t="n">
-        <v>14.73688343734762</v>
+        <v>14.73688343734761</v>
       </c>
       <c r="J17" t="n">
         <v>32.44340991221275</v>
@@ -32241,10 +32241,10 @@
         <v>48.62426137198642</v>
       </c>
       <c r="L17" t="n">
-        <v>60.32269588325618</v>
+        <v>60.32269588325617</v>
       </c>
       <c r="M17" t="n">
-        <v>67.12062210928381</v>
+        <v>67.1206221092838</v>
       </c>
       <c r="N17" t="n">
         <v>68.20670394746197</v>
@@ -32253,7 +32253,7 @@
         <v>64.40565642317367</v>
       </c>
       <c r="P17" t="n">
-        <v>54.96873767965459</v>
+        <v>54.96873767965458</v>
       </c>
       <c r="Q17" t="n">
         <v>41.27923276816995</v>
@@ -32268,7 +32268,7 @@
         <v>1.673320984293863</v>
       </c>
       <c r="U17" t="n">
-        <v>0.03058039491570735</v>
+        <v>0.03058039491570736</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2045244218920218</v>
+        <v>0.2045244218920217</v>
       </c>
       <c r="H18" t="n">
         <v>1.975275337746631</v>
@@ -32323,7 +32323,7 @@
         <v>44.40781362177429</v>
       </c>
       <c r="M18" t="n">
-        <v>51.82182391536007</v>
+        <v>51.82182391536006</v>
       </c>
       <c r="N18" t="n">
         <v>53.19339339374999</v>
@@ -32344,7 +32344,7 @@
         <v>3.798951432950489</v>
       </c>
       <c r="T18" t="n">
-        <v>0.8243769461349471</v>
+        <v>0.8243769461349469</v>
       </c>
       <c r="U18" t="n">
         <v>0.01345555407184354</v>
@@ -32408,16 +32408,16 @@
         <v>26.23903630522655</v>
       </c>
       <c r="O19" t="n">
-        <v>24.23599693896883</v>
+        <v>24.23599693896882</v>
       </c>
       <c r="P19" t="n">
         <v>20.73808227913822</v>
       </c>
       <c r="Q19" t="n">
-        <v>14.35797323159518</v>
+        <v>14.35797323159517</v>
       </c>
       <c r="R19" t="n">
-        <v>7.709753078218404</v>
+        <v>7.709753078218403</v>
       </c>
       <c r="S19" t="n">
         <v>2.98819180164672</v>
@@ -32703,46 +32703,46 @@
         <v>1.084353584706262</v>
       </c>
       <c r="H23" t="n">
-        <v>11.105136149373</v>
+        <v>11.10513614937301</v>
       </c>
       <c r="I23" t="n">
-        <v>41.80454157438818</v>
+        <v>41.8045415743882</v>
       </c>
       <c r="J23" t="n">
-        <v>92.03315505996314</v>
+        <v>92.03315505996318</v>
       </c>
       <c r="K23" t="n">
-        <v>137.9338423005792</v>
+        <v>137.9338423005793</v>
       </c>
       <c r="L23" t="n">
-        <v>171.1191283185335</v>
+        <v>171.1191283185336</v>
       </c>
       <c r="M23" t="n">
         <v>190.4030013805535</v>
       </c>
       <c r="N23" t="n">
-        <v>193.4839210031001</v>
+        <v>193.4839210031002</v>
       </c>
       <c r="O23" t="n">
-        <v>182.7013800451772</v>
+        <v>182.7013800451773</v>
       </c>
       <c r="P23" t="n">
-        <v>155.9314009227414</v>
+        <v>155.9314009227415</v>
       </c>
       <c r="Q23" t="n">
         <v>117.0979881704484</v>
       </c>
       <c r="R23" t="n">
-        <v>68.11502586530476</v>
+        <v>68.11502586530479</v>
       </c>
       <c r="S23" t="n">
-        <v>24.70970731149396</v>
+        <v>24.70970731149397</v>
       </c>
       <c r="T23" t="n">
-        <v>4.746757817051662</v>
+        <v>4.746757817051664</v>
       </c>
       <c r="U23" t="n">
-        <v>0.0867482867765009</v>
+        <v>0.08674828677650094</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,19 +32779,19 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.5801803165718459</v>
+        <v>0.5801803165718461</v>
       </c>
       <c r="H24" t="n">
-        <v>5.603320425838618</v>
+        <v>5.60332042583862</v>
       </c>
       <c r="I24" t="n">
-        <v>19.9755065135482</v>
+        <v>19.97550651354821</v>
       </c>
       <c r="J24" t="n">
-        <v>54.81431666348305</v>
+        <v>54.81431666348307</v>
       </c>
       <c r="K24" t="n">
-        <v>93.68639787379672</v>
+        <v>93.68639787379676</v>
       </c>
       <c r="L24" t="n">
         <v>125.9729235609177</v>
@@ -32800,7 +32800,7 @@
         <v>147.0044600366471</v>
       </c>
       <c r="N24" t="n">
-        <v>150.8952306683942</v>
+        <v>150.8952306683943</v>
       </c>
       <c r="O24" t="n">
         <v>138.0396562854076</v>
@@ -32809,19 +32809,19 @@
         <v>110.7889939601098</v>
       </c>
       <c r="Q24" t="n">
-        <v>74.05950848029389</v>
+        <v>74.05950848029391</v>
       </c>
       <c r="R24" t="n">
-        <v>36.02207263768006</v>
+        <v>36.02207263768008</v>
       </c>
       <c r="S24" t="n">
-        <v>10.7765949152709</v>
+        <v>10.77659491527091</v>
       </c>
       <c r="T24" t="n">
-        <v>2.338533819866343</v>
+        <v>2.338533819866344</v>
       </c>
       <c r="U24" t="n">
-        <v>0.0381697576692004</v>
+        <v>0.03816975766920042</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.4864036878938541</v>
+        <v>0.4864036878938542</v>
       </c>
       <c r="H25" t="n">
-        <v>4.324570970547178</v>
+        <v>4.32457097054718</v>
       </c>
       <c r="I25" t="n">
-        <v>14.62748545048063</v>
+        <v>14.62748545048064</v>
       </c>
       <c r="J25" t="n">
-        <v>34.38874073409548</v>
+        <v>34.38874073409549</v>
       </c>
       <c r="K25" t="n">
-        <v>56.51126482984958</v>
+        <v>56.5112648298496</v>
       </c>
       <c r="L25" t="n">
-        <v>72.31496283469173</v>
+        <v>72.31496283469177</v>
       </c>
       <c r="M25" t="n">
-        <v>76.24598900321568</v>
+        <v>76.24598900321571</v>
       </c>
       <c r="N25" t="n">
-        <v>74.43302980288411</v>
+        <v>74.43302980288414</v>
       </c>
       <c r="O25" t="n">
-        <v>68.75095035794223</v>
+        <v>68.75095035794226</v>
       </c>
       <c r="P25" t="n">
-        <v>58.82831512490756</v>
+        <v>58.82831512490759</v>
       </c>
       <c r="Q25" t="n">
-        <v>40.72967608354809</v>
+        <v>40.72967608354811</v>
       </c>
       <c r="R25" t="n">
-        <v>21.87047854839092</v>
+        <v>21.87047854839093</v>
       </c>
       <c r="S25" t="n">
-        <v>8.476689724477435</v>
+        <v>8.476689724477438</v>
       </c>
       <c r="T25" t="n">
-        <v>2.078270302819194</v>
+        <v>2.078270302819195</v>
       </c>
       <c r="U25" t="n">
-        <v>0.02653111024875571</v>
+        <v>0.02653111024875572</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32940,46 +32940,46 @@
         <v>1.084353584706262</v>
       </c>
       <c r="H26" t="n">
-        <v>11.105136149373</v>
+        <v>11.10513614937301</v>
       </c>
       <c r="I26" t="n">
-        <v>41.80454157438818</v>
+        <v>41.8045415743882</v>
       </c>
       <c r="J26" t="n">
-        <v>92.03315505996314</v>
+        <v>92.03315505996318</v>
       </c>
       <c r="K26" t="n">
-        <v>137.9338423005792</v>
+        <v>137.9338423005793</v>
       </c>
       <c r="L26" t="n">
-        <v>171.1191283185335</v>
+        <v>171.1191283185336</v>
       </c>
       <c r="M26" t="n">
         <v>190.4030013805535</v>
       </c>
       <c r="N26" t="n">
-        <v>193.4839210031001</v>
+        <v>193.4839210031002</v>
       </c>
       <c r="O26" t="n">
-        <v>182.7013800451772</v>
+        <v>182.7013800451773</v>
       </c>
       <c r="P26" t="n">
-        <v>155.9314009227414</v>
+        <v>155.9314009227415</v>
       </c>
       <c r="Q26" t="n">
         <v>117.0979881704484</v>
       </c>
       <c r="R26" t="n">
-        <v>68.11502586530476</v>
+        <v>68.11502586530479</v>
       </c>
       <c r="S26" t="n">
-        <v>24.70970731149396</v>
+        <v>24.70970731149397</v>
       </c>
       <c r="T26" t="n">
-        <v>4.746757817051662</v>
+        <v>4.746757817051664</v>
       </c>
       <c r="U26" t="n">
-        <v>0.0867482867765009</v>
+        <v>0.08674828677650094</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,19 +33016,19 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.5801803165718459</v>
+        <v>0.5801803165718461</v>
       </c>
       <c r="H27" t="n">
-        <v>5.603320425838618</v>
+        <v>5.60332042583862</v>
       </c>
       <c r="I27" t="n">
-        <v>19.9755065135482</v>
+        <v>19.97550651354821</v>
       </c>
       <c r="J27" t="n">
-        <v>54.81431666348305</v>
+        <v>54.81431666348307</v>
       </c>
       <c r="K27" t="n">
-        <v>93.68639787379672</v>
+        <v>93.68639787379676</v>
       </c>
       <c r="L27" t="n">
         <v>125.9729235609177</v>
@@ -33037,7 +33037,7 @@
         <v>147.0044600366471</v>
       </c>
       <c r="N27" t="n">
-        <v>150.8952306683942</v>
+        <v>150.8952306683943</v>
       </c>
       <c r="O27" t="n">
         <v>138.0396562854076</v>
@@ -33046,19 +33046,19 @@
         <v>110.7889939601098</v>
       </c>
       <c r="Q27" t="n">
-        <v>74.05950848029389</v>
+        <v>74.05950848029391</v>
       </c>
       <c r="R27" t="n">
-        <v>36.02207263768006</v>
+        <v>36.02207263768008</v>
       </c>
       <c r="S27" t="n">
-        <v>10.7765949152709</v>
+        <v>10.77659491527091</v>
       </c>
       <c r="T27" t="n">
-        <v>2.338533819866343</v>
+        <v>2.338533819866344</v>
       </c>
       <c r="U27" t="n">
-        <v>0.0381697576692004</v>
+        <v>0.03816975766920042</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.4864036878938541</v>
+        <v>0.4864036878938542</v>
       </c>
       <c r="H28" t="n">
-        <v>4.324570970547178</v>
+        <v>4.32457097054718</v>
       </c>
       <c r="I28" t="n">
-        <v>14.62748545048063</v>
+        <v>14.62748545048064</v>
       </c>
       <c r="J28" t="n">
-        <v>34.38874073409548</v>
+        <v>34.38874073409549</v>
       </c>
       <c r="K28" t="n">
-        <v>56.51126482984958</v>
+        <v>56.5112648298496</v>
       </c>
       <c r="L28" t="n">
-        <v>72.31496283469173</v>
+        <v>72.31496283469177</v>
       </c>
       <c r="M28" t="n">
-        <v>76.24598900321568</v>
+        <v>76.24598900321571</v>
       </c>
       <c r="N28" t="n">
-        <v>74.43302980288411</v>
+        <v>74.43302980288414</v>
       </c>
       <c r="O28" t="n">
-        <v>68.75095035794223</v>
+        <v>68.75095035794226</v>
       </c>
       <c r="P28" t="n">
-        <v>58.82831512490756</v>
+        <v>58.82831512490759</v>
       </c>
       <c r="Q28" t="n">
-        <v>40.72967608354809</v>
+        <v>40.72967608354811</v>
       </c>
       <c r="R28" t="n">
-        <v>21.87047854839092</v>
+        <v>21.87047854839093</v>
       </c>
       <c r="S28" t="n">
-        <v>8.476689724477435</v>
+        <v>8.476689724477438</v>
       </c>
       <c r="T28" t="n">
-        <v>2.078270302819194</v>
+        <v>2.078270302819195</v>
       </c>
       <c r="U28" t="n">
-        <v>0.02653111024875571</v>
+        <v>0.02653111024875572</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33177,46 +33177,46 @@
         <v>1.084353584706262</v>
       </c>
       <c r="H29" t="n">
-        <v>11.105136149373</v>
+        <v>11.10513614937301</v>
       </c>
       <c r="I29" t="n">
-        <v>41.80454157438818</v>
+        <v>41.8045415743882</v>
       </c>
       <c r="J29" t="n">
-        <v>92.03315505996314</v>
+        <v>92.03315505996318</v>
       </c>
       <c r="K29" t="n">
-        <v>137.9338423005792</v>
+        <v>137.9338423005793</v>
       </c>
       <c r="L29" t="n">
-        <v>171.1191283185335</v>
+        <v>171.1191283185336</v>
       </c>
       <c r="M29" t="n">
         <v>190.4030013805535</v>
       </c>
       <c r="N29" t="n">
-        <v>193.4839210031001</v>
+        <v>193.4839210031002</v>
       </c>
       <c r="O29" t="n">
-        <v>182.7013800451772</v>
+        <v>182.7013800451773</v>
       </c>
       <c r="P29" t="n">
-        <v>155.9314009227414</v>
+        <v>155.9314009227415</v>
       </c>
       <c r="Q29" t="n">
         <v>117.0979881704484</v>
       </c>
       <c r="R29" t="n">
-        <v>68.11502586530476</v>
+        <v>68.11502586530479</v>
       </c>
       <c r="S29" t="n">
-        <v>24.70970731149396</v>
+        <v>24.70970731149397</v>
       </c>
       <c r="T29" t="n">
-        <v>4.746757817051662</v>
+        <v>4.746757817051664</v>
       </c>
       <c r="U29" t="n">
-        <v>0.0867482867765009</v>
+        <v>0.08674828677650094</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,19 +33253,19 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.5801803165718459</v>
+        <v>0.5801803165718461</v>
       </c>
       <c r="H30" t="n">
-        <v>5.603320425838618</v>
+        <v>5.60332042583862</v>
       </c>
       <c r="I30" t="n">
-        <v>19.9755065135482</v>
+        <v>19.97550651354821</v>
       </c>
       <c r="J30" t="n">
-        <v>54.81431666348305</v>
+        <v>54.81431666348307</v>
       </c>
       <c r="K30" t="n">
-        <v>93.68639787379672</v>
+        <v>93.68639787379676</v>
       </c>
       <c r="L30" t="n">
         <v>125.9729235609177</v>
@@ -33274,7 +33274,7 @@
         <v>147.0044600366471</v>
       </c>
       <c r="N30" t="n">
-        <v>150.8952306683942</v>
+        <v>150.8952306683943</v>
       </c>
       <c r="O30" t="n">
         <v>138.0396562854076</v>
@@ -33283,19 +33283,19 @@
         <v>110.7889939601098</v>
       </c>
       <c r="Q30" t="n">
-        <v>74.05950848029389</v>
+        <v>74.05950848029391</v>
       </c>
       <c r="R30" t="n">
-        <v>36.02207263768006</v>
+        <v>36.02207263768008</v>
       </c>
       <c r="S30" t="n">
-        <v>10.7765949152709</v>
+        <v>10.77659491527091</v>
       </c>
       <c r="T30" t="n">
-        <v>2.338533819866343</v>
+        <v>2.338533819866344</v>
       </c>
       <c r="U30" t="n">
-        <v>0.0381697576692004</v>
+        <v>0.03816975766920042</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.4864036878938541</v>
+        <v>0.4864036878938542</v>
       </c>
       <c r="H31" t="n">
-        <v>4.324570970547178</v>
+        <v>4.32457097054718</v>
       </c>
       <c r="I31" t="n">
-        <v>14.62748545048063</v>
+        <v>14.62748545048064</v>
       </c>
       <c r="J31" t="n">
-        <v>34.38874073409548</v>
+        <v>34.38874073409549</v>
       </c>
       <c r="K31" t="n">
-        <v>56.51126482984958</v>
+        <v>56.5112648298496</v>
       </c>
       <c r="L31" t="n">
-        <v>72.31496283469173</v>
+        <v>72.31496283469177</v>
       </c>
       <c r="M31" t="n">
-        <v>76.24598900321568</v>
+        <v>76.24598900321571</v>
       </c>
       <c r="N31" t="n">
-        <v>74.43302980288411</v>
+        <v>74.43302980288414</v>
       </c>
       <c r="O31" t="n">
-        <v>68.75095035794223</v>
+        <v>68.75095035794226</v>
       </c>
       <c r="P31" t="n">
-        <v>58.82831512490756</v>
+        <v>58.82831512490759</v>
       </c>
       <c r="Q31" t="n">
-        <v>40.72967608354809</v>
+        <v>40.72967608354811</v>
       </c>
       <c r="R31" t="n">
-        <v>21.87047854839092</v>
+        <v>21.87047854839093</v>
       </c>
       <c r="S31" t="n">
-        <v>8.476689724477435</v>
+        <v>8.476689724477438</v>
       </c>
       <c r="T31" t="n">
-        <v>2.078270302819194</v>
+        <v>2.078270302819195</v>
       </c>
       <c r="U31" t="n">
-        <v>0.02653111024875571</v>
+        <v>0.02653111024875572</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33414,46 +33414,46 @@
         <v>1.084353584706262</v>
       </c>
       <c r="H32" t="n">
-        <v>11.105136149373</v>
+        <v>11.10513614937301</v>
       </c>
       <c r="I32" t="n">
-        <v>41.80454157438818</v>
+        <v>41.8045415743882</v>
       </c>
       <c r="J32" t="n">
-        <v>92.03315505996314</v>
+        <v>92.03315505996318</v>
       </c>
       <c r="K32" t="n">
-        <v>137.9338423005792</v>
+        <v>137.9338423005793</v>
       </c>
       <c r="L32" t="n">
-        <v>171.1191283185335</v>
+        <v>171.1191283185336</v>
       </c>
       <c r="M32" t="n">
         <v>190.4030013805535</v>
       </c>
       <c r="N32" t="n">
-        <v>193.4839210031001</v>
+        <v>193.4839210031002</v>
       </c>
       <c r="O32" t="n">
-        <v>182.7013800451772</v>
+        <v>182.7013800451773</v>
       </c>
       <c r="P32" t="n">
-        <v>155.9314009227414</v>
+        <v>155.9314009227415</v>
       </c>
       <c r="Q32" t="n">
         <v>117.0979881704484</v>
       </c>
       <c r="R32" t="n">
-        <v>68.11502586530476</v>
+        <v>68.11502586530479</v>
       </c>
       <c r="S32" t="n">
-        <v>24.70970731149396</v>
+        <v>24.70970731149397</v>
       </c>
       <c r="T32" t="n">
-        <v>4.746757817051662</v>
+        <v>4.746757817051664</v>
       </c>
       <c r="U32" t="n">
-        <v>0.0867482867765009</v>
+        <v>0.08674828677650094</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,19 +33490,19 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.5801803165718459</v>
+        <v>0.5801803165718461</v>
       </c>
       <c r="H33" t="n">
-        <v>5.603320425838618</v>
+        <v>5.60332042583862</v>
       </c>
       <c r="I33" t="n">
-        <v>19.9755065135482</v>
+        <v>19.97550651354821</v>
       </c>
       <c r="J33" t="n">
-        <v>54.81431666348305</v>
+        <v>54.81431666348307</v>
       </c>
       <c r="K33" t="n">
-        <v>93.68639787379672</v>
+        <v>93.68639787379676</v>
       </c>
       <c r="L33" t="n">
         <v>125.9729235609177</v>
@@ -33511,7 +33511,7 @@
         <v>147.0044600366471</v>
       </c>
       <c r="N33" t="n">
-        <v>150.8952306683942</v>
+        <v>150.8952306683943</v>
       </c>
       <c r="O33" t="n">
         <v>138.0396562854076</v>
@@ -33520,19 +33520,19 @@
         <v>110.7889939601098</v>
       </c>
       <c r="Q33" t="n">
-        <v>74.05950848029389</v>
+        <v>74.05950848029391</v>
       </c>
       <c r="R33" t="n">
-        <v>36.02207263768006</v>
+        <v>36.02207263768008</v>
       </c>
       <c r="S33" t="n">
-        <v>10.7765949152709</v>
+        <v>10.77659491527091</v>
       </c>
       <c r="T33" t="n">
-        <v>2.338533819866343</v>
+        <v>2.338533819866344</v>
       </c>
       <c r="U33" t="n">
-        <v>0.0381697576692004</v>
+        <v>0.03816975766920042</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.4864036878938541</v>
+        <v>0.4864036878938542</v>
       </c>
       <c r="H34" t="n">
-        <v>4.324570970547178</v>
+        <v>4.32457097054718</v>
       </c>
       <c r="I34" t="n">
-        <v>14.62748545048063</v>
+        <v>14.62748545048064</v>
       </c>
       <c r="J34" t="n">
-        <v>34.38874073409548</v>
+        <v>34.38874073409549</v>
       </c>
       <c r="K34" t="n">
-        <v>56.51126482984958</v>
+        <v>56.5112648298496</v>
       </c>
       <c r="L34" t="n">
-        <v>72.31496283469173</v>
+        <v>72.31496283469177</v>
       </c>
       <c r="M34" t="n">
-        <v>76.24598900321568</v>
+        <v>76.24598900321571</v>
       </c>
       <c r="N34" t="n">
-        <v>74.43302980288411</v>
+        <v>74.43302980288414</v>
       </c>
       <c r="O34" t="n">
-        <v>68.75095035794223</v>
+        <v>68.75095035794226</v>
       </c>
       <c r="P34" t="n">
-        <v>58.82831512490756</v>
+        <v>58.82831512490759</v>
       </c>
       <c r="Q34" t="n">
-        <v>40.72967608354809</v>
+        <v>40.72967608354811</v>
       </c>
       <c r="R34" t="n">
-        <v>21.87047854839092</v>
+        <v>21.87047854839093</v>
       </c>
       <c r="S34" t="n">
-        <v>8.476689724477435</v>
+        <v>8.476689724477438</v>
       </c>
       <c r="T34" t="n">
-        <v>2.078270302819194</v>
+        <v>2.078270302819195</v>
       </c>
       <c r="U34" t="n">
-        <v>0.02653111024875571</v>
+        <v>0.02653111024875572</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33651,46 +33651,46 @@
         <v>1.084353584706262</v>
       </c>
       <c r="H35" t="n">
-        <v>11.105136149373</v>
+        <v>11.10513614937301</v>
       </c>
       <c r="I35" t="n">
-        <v>41.80454157438818</v>
+        <v>41.8045415743882</v>
       </c>
       <c r="J35" t="n">
-        <v>92.03315505996314</v>
+        <v>92.03315505996318</v>
       </c>
       <c r="K35" t="n">
-        <v>137.9338423005792</v>
+        <v>137.9338423005793</v>
       </c>
       <c r="L35" t="n">
-        <v>171.1191283185335</v>
+        <v>171.1191283185336</v>
       </c>
       <c r="M35" t="n">
         <v>190.4030013805535</v>
       </c>
       <c r="N35" t="n">
-        <v>193.4839210031001</v>
+        <v>193.4839210031002</v>
       </c>
       <c r="O35" t="n">
-        <v>182.7013800451772</v>
+        <v>182.7013800451773</v>
       </c>
       <c r="P35" t="n">
-        <v>155.9314009227414</v>
+        <v>155.9314009227415</v>
       </c>
       <c r="Q35" t="n">
         <v>117.0979881704484</v>
       </c>
       <c r="R35" t="n">
-        <v>68.11502586530476</v>
+        <v>68.11502586530479</v>
       </c>
       <c r="S35" t="n">
-        <v>24.70970731149396</v>
+        <v>24.70970731149397</v>
       </c>
       <c r="T35" t="n">
-        <v>4.746757817051662</v>
+        <v>4.746757817051664</v>
       </c>
       <c r="U35" t="n">
-        <v>0.0867482867765009</v>
+        <v>0.08674828677650094</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,19 +33727,19 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.5801803165718459</v>
+        <v>0.5801803165718461</v>
       </c>
       <c r="H36" t="n">
-        <v>5.603320425838618</v>
+        <v>5.60332042583862</v>
       </c>
       <c r="I36" t="n">
-        <v>19.9755065135482</v>
+        <v>19.97550651354821</v>
       </c>
       <c r="J36" t="n">
-        <v>54.81431666348305</v>
+        <v>54.81431666348307</v>
       </c>
       <c r="K36" t="n">
-        <v>93.68639787379672</v>
+        <v>93.68639787379676</v>
       </c>
       <c r="L36" t="n">
         <v>125.9729235609177</v>
@@ -33748,7 +33748,7 @@
         <v>147.0044600366471</v>
       </c>
       <c r="N36" t="n">
-        <v>150.8952306683942</v>
+        <v>150.8952306683943</v>
       </c>
       <c r="O36" t="n">
         <v>138.0396562854076</v>
@@ -33757,19 +33757,19 @@
         <v>110.7889939601098</v>
       </c>
       <c r="Q36" t="n">
-        <v>74.05950848029389</v>
+        <v>74.05950848029391</v>
       </c>
       <c r="R36" t="n">
-        <v>36.02207263768006</v>
+        <v>36.02207263768008</v>
       </c>
       <c r="S36" t="n">
-        <v>10.7765949152709</v>
+        <v>10.77659491527091</v>
       </c>
       <c r="T36" t="n">
-        <v>2.338533819866343</v>
+        <v>2.338533819866344</v>
       </c>
       <c r="U36" t="n">
-        <v>0.0381697576692004</v>
+        <v>0.03816975766920042</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.4864036878938541</v>
+        <v>0.4864036878938542</v>
       </c>
       <c r="H37" t="n">
-        <v>4.324570970547178</v>
+        <v>4.32457097054718</v>
       </c>
       <c r="I37" t="n">
-        <v>14.62748545048063</v>
+        <v>14.62748545048064</v>
       </c>
       <c r="J37" t="n">
-        <v>34.38874073409548</v>
+        <v>34.38874073409549</v>
       </c>
       <c r="K37" t="n">
-        <v>56.51126482984958</v>
+        <v>56.5112648298496</v>
       </c>
       <c r="L37" t="n">
-        <v>72.31496283469173</v>
+        <v>72.31496283469177</v>
       </c>
       <c r="M37" t="n">
-        <v>76.24598900321568</v>
+        <v>76.24598900321571</v>
       </c>
       <c r="N37" t="n">
-        <v>74.43302980288411</v>
+        <v>74.43302980288414</v>
       </c>
       <c r="O37" t="n">
-        <v>68.75095035794223</v>
+        <v>68.75095035794226</v>
       </c>
       <c r="P37" t="n">
-        <v>58.82831512490756</v>
+        <v>58.82831512490759</v>
       </c>
       <c r="Q37" t="n">
-        <v>40.72967608354809</v>
+        <v>40.72967608354811</v>
       </c>
       <c r="R37" t="n">
-        <v>21.87047854839092</v>
+        <v>21.87047854839093</v>
       </c>
       <c r="S37" t="n">
-        <v>8.476689724477435</v>
+        <v>8.476689724477438</v>
       </c>
       <c r="T37" t="n">
-        <v>2.078270302819194</v>
+        <v>2.078270302819195</v>
       </c>
       <c r="U37" t="n">
-        <v>0.02653111024875571</v>
+        <v>0.02653111024875572</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33888,46 +33888,46 @@
         <v>1.084353584706262</v>
       </c>
       <c r="H38" t="n">
-        <v>11.105136149373</v>
+        <v>11.10513614937301</v>
       </c>
       <c r="I38" t="n">
-        <v>41.80454157438818</v>
+        <v>41.8045415743882</v>
       </c>
       <c r="J38" t="n">
-        <v>92.03315505996314</v>
+        <v>92.03315505996318</v>
       </c>
       <c r="K38" t="n">
-        <v>137.9338423005792</v>
+        <v>137.9338423005793</v>
       </c>
       <c r="L38" t="n">
-        <v>171.1191283185335</v>
+        <v>171.1191283185336</v>
       </c>
       <c r="M38" t="n">
         <v>190.4030013805535</v>
       </c>
       <c r="N38" t="n">
-        <v>193.4839210031001</v>
+        <v>193.4839210031002</v>
       </c>
       <c r="O38" t="n">
-        <v>182.7013800451772</v>
+        <v>182.7013800451773</v>
       </c>
       <c r="P38" t="n">
-        <v>155.9314009227414</v>
+        <v>155.9314009227415</v>
       </c>
       <c r="Q38" t="n">
         <v>117.0979881704484</v>
       </c>
       <c r="R38" t="n">
-        <v>68.11502586530476</v>
+        <v>68.11502586530479</v>
       </c>
       <c r="S38" t="n">
-        <v>24.70970731149396</v>
+        <v>24.70970731149397</v>
       </c>
       <c r="T38" t="n">
-        <v>4.746757817051662</v>
+        <v>4.746757817051664</v>
       </c>
       <c r="U38" t="n">
-        <v>0.0867482867765009</v>
+        <v>0.08674828677650094</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,19 +33964,19 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.5801803165718459</v>
+        <v>0.5801803165718461</v>
       </c>
       <c r="H39" t="n">
-        <v>5.603320425838618</v>
+        <v>5.60332042583862</v>
       </c>
       <c r="I39" t="n">
-        <v>19.9755065135482</v>
+        <v>19.97550651354821</v>
       </c>
       <c r="J39" t="n">
-        <v>54.81431666348305</v>
+        <v>54.81431666348307</v>
       </c>
       <c r="K39" t="n">
-        <v>93.68639787379672</v>
+        <v>93.68639787379676</v>
       </c>
       <c r="L39" t="n">
         <v>125.9729235609177</v>
@@ -33985,7 +33985,7 @@
         <v>147.0044600366471</v>
       </c>
       <c r="N39" t="n">
-        <v>150.8952306683942</v>
+        <v>150.8952306683943</v>
       </c>
       <c r="O39" t="n">
         <v>138.0396562854076</v>
@@ -33994,19 +33994,19 @@
         <v>110.7889939601098</v>
       </c>
       <c r="Q39" t="n">
-        <v>74.05950848029389</v>
+        <v>74.05950848029391</v>
       </c>
       <c r="R39" t="n">
-        <v>36.02207263768006</v>
+        <v>36.02207263768008</v>
       </c>
       <c r="S39" t="n">
-        <v>10.7765949152709</v>
+        <v>10.77659491527091</v>
       </c>
       <c r="T39" t="n">
-        <v>2.338533819866343</v>
+        <v>2.338533819866344</v>
       </c>
       <c r="U39" t="n">
-        <v>0.0381697576692004</v>
+        <v>0.03816975766920042</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.4864036878938541</v>
+        <v>0.4864036878938542</v>
       </c>
       <c r="H40" t="n">
-        <v>4.324570970547178</v>
+        <v>4.32457097054718</v>
       </c>
       <c r="I40" t="n">
-        <v>14.62748545048063</v>
+        <v>14.62748545048064</v>
       </c>
       <c r="J40" t="n">
-        <v>34.38874073409548</v>
+        <v>34.38874073409549</v>
       </c>
       <c r="K40" t="n">
-        <v>56.51126482984958</v>
+        <v>56.5112648298496</v>
       </c>
       <c r="L40" t="n">
-        <v>72.31496283469173</v>
+        <v>72.31496283469177</v>
       </c>
       <c r="M40" t="n">
-        <v>76.24598900321568</v>
+        <v>76.24598900321571</v>
       </c>
       <c r="N40" t="n">
-        <v>74.43302980288411</v>
+        <v>74.43302980288414</v>
       </c>
       <c r="O40" t="n">
-        <v>68.75095035794223</v>
+        <v>68.75095035794226</v>
       </c>
       <c r="P40" t="n">
-        <v>58.82831512490756</v>
+        <v>58.82831512490759</v>
       </c>
       <c r="Q40" t="n">
-        <v>40.72967608354809</v>
+        <v>40.72967608354811</v>
       </c>
       <c r="R40" t="n">
-        <v>21.87047854839092</v>
+        <v>21.87047854839093</v>
       </c>
       <c r="S40" t="n">
-        <v>8.476689724477435</v>
+        <v>8.476689724477438</v>
       </c>
       <c r="T40" t="n">
-        <v>2.078270302819194</v>
+        <v>2.078270302819195</v>
       </c>
       <c r="U40" t="n">
-        <v>0.02653111024875571</v>
+        <v>0.02653111024875572</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34125,46 +34125,46 @@
         <v>1.084353584706262</v>
       </c>
       <c r="H41" t="n">
-        <v>11.105136149373</v>
+        <v>11.10513614937301</v>
       </c>
       <c r="I41" t="n">
-        <v>41.80454157438818</v>
+        <v>41.8045415743882</v>
       </c>
       <c r="J41" t="n">
-        <v>92.03315505996314</v>
+        <v>92.03315505996318</v>
       </c>
       <c r="K41" t="n">
-        <v>137.9338423005792</v>
+        <v>137.9338423005793</v>
       </c>
       <c r="L41" t="n">
-        <v>171.1191283185335</v>
+        <v>171.1191283185336</v>
       </c>
       <c r="M41" t="n">
         <v>190.4030013805535</v>
       </c>
       <c r="N41" t="n">
-        <v>193.4839210031001</v>
+        <v>193.4839210031002</v>
       </c>
       <c r="O41" t="n">
-        <v>182.7013800451772</v>
+        <v>182.7013800451773</v>
       </c>
       <c r="P41" t="n">
-        <v>155.9314009227414</v>
+        <v>155.9314009227415</v>
       </c>
       <c r="Q41" t="n">
         <v>117.0979881704484</v>
       </c>
       <c r="R41" t="n">
-        <v>68.11502586530476</v>
+        <v>68.11502586530479</v>
       </c>
       <c r="S41" t="n">
-        <v>24.70970731149396</v>
+        <v>24.70970731149397</v>
       </c>
       <c r="T41" t="n">
-        <v>4.746757817051662</v>
+        <v>4.746757817051664</v>
       </c>
       <c r="U41" t="n">
-        <v>0.0867482867765009</v>
+        <v>0.08674828677650094</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,19 +34201,19 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.5801803165718459</v>
+        <v>0.5801803165718461</v>
       </c>
       <c r="H42" t="n">
-        <v>5.603320425838618</v>
+        <v>5.60332042583862</v>
       </c>
       <c r="I42" t="n">
-        <v>19.9755065135482</v>
+        <v>19.97550651354821</v>
       </c>
       <c r="J42" t="n">
-        <v>54.81431666348305</v>
+        <v>54.81431666348307</v>
       </c>
       <c r="K42" t="n">
-        <v>93.68639787379672</v>
+        <v>93.68639787379676</v>
       </c>
       <c r="L42" t="n">
         <v>125.9729235609177</v>
@@ -34222,7 +34222,7 @@
         <v>147.0044600366471</v>
       </c>
       <c r="N42" t="n">
-        <v>150.8952306683942</v>
+        <v>150.8952306683943</v>
       </c>
       <c r="O42" t="n">
         <v>138.0396562854076</v>
@@ -34231,19 +34231,19 @@
         <v>110.7889939601098</v>
       </c>
       <c r="Q42" t="n">
-        <v>74.05950848029389</v>
+        <v>74.05950848029391</v>
       </c>
       <c r="R42" t="n">
-        <v>36.02207263768006</v>
+        <v>36.02207263768008</v>
       </c>
       <c r="S42" t="n">
-        <v>10.7765949152709</v>
+        <v>10.77659491527091</v>
       </c>
       <c r="T42" t="n">
-        <v>2.338533819866343</v>
+        <v>2.338533819866344</v>
       </c>
       <c r="U42" t="n">
-        <v>0.0381697576692004</v>
+        <v>0.03816975766920042</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.4864036878938541</v>
+        <v>0.4864036878938542</v>
       </c>
       <c r="H43" t="n">
-        <v>4.324570970547178</v>
+        <v>4.32457097054718</v>
       </c>
       <c r="I43" t="n">
-        <v>14.62748545048063</v>
+        <v>14.62748545048064</v>
       </c>
       <c r="J43" t="n">
-        <v>34.38874073409548</v>
+        <v>34.38874073409549</v>
       </c>
       <c r="K43" t="n">
-        <v>56.51126482984958</v>
+        <v>56.5112648298496</v>
       </c>
       <c r="L43" t="n">
-        <v>72.31496283469173</v>
+        <v>72.31496283469177</v>
       </c>
       <c r="M43" t="n">
-        <v>76.24598900321568</v>
+        <v>76.24598900321571</v>
       </c>
       <c r="N43" t="n">
-        <v>74.43302980288411</v>
+        <v>74.43302980288414</v>
       </c>
       <c r="O43" t="n">
-        <v>68.75095035794223</v>
+        <v>68.75095035794226</v>
       </c>
       <c r="P43" t="n">
-        <v>58.82831512490756</v>
+        <v>58.82831512490759</v>
       </c>
       <c r="Q43" t="n">
-        <v>40.72967608354809</v>
+        <v>40.72967608354811</v>
       </c>
       <c r="R43" t="n">
-        <v>21.87047854839092</v>
+        <v>21.87047854839093</v>
       </c>
       <c r="S43" t="n">
-        <v>8.476689724477435</v>
+        <v>8.476689724477438</v>
       </c>
       <c r="T43" t="n">
-        <v>2.078270302819194</v>
+        <v>2.078270302819195</v>
       </c>
       <c r="U43" t="n">
-        <v>0.02653111024875571</v>
+        <v>0.02653111024875572</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>2.326426748961198</v>
+        <v>1.084353584706262</v>
       </c>
       <c r="H44" t="n">
-        <v>23.82551794279888</v>
+        <v>11.10513614937301</v>
       </c>
       <c r="I44" t="n">
-        <v>89.68956723932668</v>
+        <v>41.8045415743882</v>
       </c>
       <c r="J44" t="n">
-        <v>197.4525622846457</v>
+        <v>92.03315505996318</v>
       </c>
       <c r="K44" t="n">
-        <v>295.9302065681733</v>
+        <v>137.9338423005793</v>
       </c>
       <c r="L44" t="n">
-        <v>367.1275891866946</v>
+        <v>171.1191283185336</v>
       </c>
       <c r="M44" t="n">
-        <v>408.5001808835333</v>
+        <v>190.4030013805535</v>
       </c>
       <c r="N44" t="n">
-        <v>415.1101408840194</v>
+        <v>193.4839210031002</v>
       </c>
       <c r="O44" t="n">
-        <v>391.9767348990364</v>
+        <v>182.7013800451773</v>
       </c>
       <c r="P44" t="n">
-        <v>334.5430745340568</v>
+        <v>155.9314009227415</v>
       </c>
       <c r="Q44" t="n">
-        <v>251.2279165868838</v>
+        <v>117.0979881704484</v>
       </c>
       <c r="R44" t="n">
-        <v>146.137404269434</v>
+        <v>68.11502586530479</v>
       </c>
       <c r="S44" t="n">
-        <v>53.01344954195336</v>
+        <v>24.70970731149397</v>
       </c>
       <c r="T44" t="n">
-        <v>10.18393309357765</v>
+        <v>4.746757817051664</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1861141399168958</v>
+        <v>0.08674828677650094</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.244748047805042</v>
+        <v>0.5801803165718461</v>
       </c>
       <c r="H45" t="n">
-        <v>12.0216456195908</v>
+        <v>5.60332042583862</v>
       </c>
       <c r="I45" t="n">
-        <v>42.85645690907711</v>
+        <v>19.97550651354821</v>
       </c>
       <c r="J45" t="n">
-        <v>117.601393411265</v>
+        <v>54.81431666348307</v>
       </c>
       <c r="K45" t="n">
-        <v>200.9995126142028</v>
+        <v>93.68639787379676</v>
       </c>
       <c r="L45" t="n">
-        <v>270.2686495903009</v>
+        <v>125.9729235609177</v>
       </c>
       <c r="M45" t="n">
-        <v>315.3907663232337</v>
+        <v>147.0044600366471</v>
       </c>
       <c r="N45" t="n">
-        <v>323.7382214332947</v>
+        <v>150.8952306683943</v>
       </c>
       <c r="O45" t="n">
-        <v>296.1572252161409</v>
+        <v>138.0396562854076</v>
       </c>
       <c r="P45" t="n">
-        <v>237.69228291814</v>
+        <v>110.7889939601098</v>
       </c>
       <c r="Q45" t="n">
-        <v>158.8909964180612</v>
+        <v>74.05950848029391</v>
       </c>
       <c r="R45" t="n">
-        <v>77.28356738915869</v>
+        <v>36.02207263768008</v>
       </c>
       <c r="S45" t="n">
-        <v>23.12064904585241</v>
+        <v>10.77659491527091</v>
       </c>
       <c r="T45" t="n">
-        <v>5.017208140056287</v>
+        <v>2.338533819866344</v>
       </c>
       <c r="U45" t="n">
-        <v>0.08189131893454228</v>
+        <v>0.03816975766920042</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.0435549494828</v>
+        <v>0.4864036878938542</v>
       </c>
       <c r="H46" t="n">
-        <v>9.278152187219815</v>
+        <v>4.32457097054718</v>
       </c>
       <c r="I46" t="n">
-        <v>31.38254338990096</v>
+        <v>14.62748545048064</v>
       </c>
       <c r="J46" t="n">
-        <v>73.779334928434</v>
+        <v>34.38874073409549</v>
       </c>
       <c r="K46" t="n">
-        <v>121.2421114035472</v>
+        <v>56.5112648298496</v>
       </c>
       <c r="L46" t="n">
-        <v>155.1481603985611</v>
+        <v>72.31496283469177</v>
       </c>
       <c r="M46" t="n">
-        <v>163.5819817630175</v>
+        <v>76.24598900321571</v>
       </c>
       <c r="N46" t="n">
-        <v>159.6923678603999</v>
+        <v>74.43302980288414</v>
       </c>
       <c r="O46" t="n">
-        <v>147.5017486778054</v>
+        <v>68.75095035794226</v>
       </c>
       <c r="P46" t="n">
-        <v>126.2132277083561</v>
+        <v>58.82831512490759</v>
       </c>
       <c r="Q46" t="n">
-        <v>87.38349672441888</v>
+        <v>40.72967608354811</v>
       </c>
       <c r="R46" t="n">
-        <v>46.92202527401754</v>
+        <v>21.87047854839093</v>
       </c>
       <c r="S46" t="n">
-        <v>18.18631671053207</v>
+        <v>8.476689724477438</v>
       </c>
       <c r="T46" t="n">
-        <v>4.458825693244692</v>
+        <v>2.078270302819195</v>
       </c>
       <c r="U46" t="n">
-        <v>0.05692117906269827</v>
+        <v>0.02653111024875572</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -36120,13 +36120,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>5.616668331158541</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>5.853159629312586</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -36141,10 +36141,10 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>5.853159629312586</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>5.853159629312586</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>5.616668331158541</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -36217,13 +36217,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>5.853159629312586</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>5.853159629312586</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>5.853159629312586</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36284,16 +36284,16 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>5.853159629312586</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>5.853159629312586</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>5.853159629312586</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>5.616668331158544</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -36357,28 +36357,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>348.7861565425432</v>
+        <v>348.7861565425433</v>
       </c>
       <c r="K23" t="n">
-        <v>48.79745262736209</v>
+        <v>511.9336214551717</v>
       </c>
       <c r="L23" t="n">
-        <v>75.63373025568869</v>
+        <v>75.63373025568875</v>
       </c>
       <c r="M23" t="n">
-        <v>97.11277692350801</v>
+        <v>97.11277692350809</v>
       </c>
       <c r="N23" t="n">
-        <v>100.5716302464808</v>
+        <v>100.5716302464809</v>
       </c>
       <c r="O23" t="n">
-        <v>511.9336214551716</v>
+        <v>89.5116044193942</v>
       </c>
       <c r="P23" t="n">
-        <v>402.7118855050404</v>
+        <v>511.9336214551717</v>
       </c>
       <c r="Q23" t="n">
-        <v>441.5030455394302</v>
+        <v>291.5671577972666</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36436,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>3.445077863483036</v>
+        <v>3.445077863483057</v>
       </c>
       <c r="K24" t="n">
-        <v>511.9336214551716</v>
+        <v>511.9336214551717</v>
       </c>
       <c r="L24" t="n">
-        <v>511.9336214551716</v>
+        <v>69.8583997500687</v>
       </c>
       <c r="M24" t="n">
-        <v>89.44017629822963</v>
+        <v>89.44017629822972</v>
       </c>
       <c r="N24" t="n">
-        <v>97.70183727464425</v>
+        <v>97.70183727464433</v>
       </c>
       <c r="O24" t="n">
-        <v>80.28817728540758</v>
+        <v>315.2998093626235</v>
       </c>
       <c r="P24" t="n">
-        <v>238.9898588233118</v>
+        <v>511.9336214551717</v>
       </c>
       <c r="Q24" t="n">
         <v>427.4377556358327</v>
       </c>
       <c r="R24" t="n">
-        <v>65.88017300397289</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>48.61353811309601</v>
+        <v>48.61353811309602</v>
       </c>
       <c r="K25" t="n">
         <v>212.6247271755445</v>
@@ -36530,7 +36530,7 @@
         <v>358.1085675748541</v>
       </c>
       <c r="O25" t="n">
-        <v>330.9333850311484</v>
+        <v>330.9333850311485</v>
       </c>
       <c r="P25" t="n">
         <v>266.581285074011</v>
@@ -36594,25 +36594,25 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>348.7861565425432</v>
+        <v>348.7861565425433</v>
       </c>
       <c r="K26" t="n">
-        <v>48.79745262736209</v>
+        <v>48.79745262736215</v>
       </c>
       <c r="L26" t="n">
-        <v>314.5834159803428</v>
+        <v>75.63373025568875</v>
       </c>
       <c r="M26" t="n">
-        <v>511.9336214551716</v>
+        <v>97.11277692350809</v>
       </c>
       <c r="N26" t="n">
-        <v>100.5716302464808</v>
+        <v>100.5716302464809</v>
       </c>
       <c r="O26" t="n">
-        <v>89.51160441939412</v>
+        <v>293.6305508623973</v>
       </c>
       <c r="P26" t="n">
-        <v>62.28203764185724</v>
+        <v>511.9336214551717</v>
       </c>
       <c r="Q26" t="n">
         <v>441.5030455394302</v>
@@ -36676,28 +36676,28 @@
         <v>249.5747788479611</v>
       </c>
       <c r="K27" t="n">
-        <v>511.9336214551716</v>
+        <v>511.9336214551717</v>
       </c>
       <c r="L27" t="n">
-        <v>402.9310234992112</v>
+        <v>69.8583997500687</v>
       </c>
       <c r="M27" t="n">
-        <v>89.44017629822963</v>
+        <v>89.44017629822972</v>
       </c>
       <c r="N27" t="n">
-        <v>97.70183727464425</v>
+        <v>97.70183727464433</v>
       </c>
       <c r="O27" t="n">
-        <v>80.28817728540758</v>
+        <v>80.28817728540764</v>
       </c>
       <c r="P27" t="n">
-        <v>511.9336214551716</v>
+        <v>500.8155525479093</v>
       </c>
       <c r="Q27" t="n">
-        <v>17.36688997545517</v>
+        <v>427.4377556358327</v>
       </c>
       <c r="R27" t="n">
-        <v>65.88017300397289</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>48.61353811309601</v>
+        <v>48.61353811309606</v>
       </c>
       <c r="K28" t="n">
         <v>212.6247271755445</v>
@@ -36767,7 +36767,7 @@
         <v>358.1085675748541</v>
       </c>
       <c r="O28" t="n">
-        <v>330.9333850311484</v>
+        <v>330.9333850311485</v>
       </c>
       <c r="P28" t="n">
         <v>266.581285074011</v>
@@ -36831,28 +36831,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>18.70956372665519</v>
+        <v>348.7861565425433</v>
       </c>
       <c r="K29" t="n">
-        <v>184.6007105278645</v>
+        <v>244.9332438027218</v>
       </c>
       <c r="L29" t="n">
-        <v>511.9336214551716</v>
+        <v>75.63373025568875</v>
       </c>
       <c r="M29" t="n">
-        <v>511.9336214551716</v>
+        <v>97.11277692350809</v>
       </c>
       <c r="N29" t="n">
-        <v>511.9336214551716</v>
+        <v>100.5716302464809</v>
       </c>
       <c r="O29" t="n">
-        <v>89.51160441939412</v>
+        <v>511.9336214551717</v>
       </c>
       <c r="P29" t="n">
-        <v>62.28203764185724</v>
+        <v>511.9336214551717</v>
       </c>
       <c r="Q29" t="n">
-        <v>27.06418377129633</v>
+        <v>27.06418377129637</v>
       </c>
       <c r="R29" t="n">
         <v>109.081334642643</v>
@@ -36910,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>3.445077863483036</v>
+        <v>249.5747788479611</v>
       </c>
       <c r="K30" t="n">
-        <v>511.9336214551716</v>
+        <v>511.9336214551717</v>
       </c>
       <c r="L30" t="n">
-        <v>304.8700318272846</v>
+        <v>69.8583997500687</v>
       </c>
       <c r="M30" t="n">
-        <v>89.44017629822963</v>
+        <v>89.44017629822972</v>
       </c>
       <c r="N30" t="n">
-        <v>97.70183727464425</v>
+        <v>97.70183727464433</v>
       </c>
       <c r="O30" t="n">
-        <v>80.28817728540758</v>
+        <v>80.28817728540764</v>
       </c>
       <c r="P30" t="n">
-        <v>511.9336214551716</v>
+        <v>434.9353795439365</v>
       </c>
       <c r="Q30" t="n">
         <v>427.4377556358327</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>65.8801730039729</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>48.61353811309601</v>
+        <v>48.61353811309602</v>
       </c>
       <c r="K31" t="n">
         <v>212.6247271755445</v>
@@ -36998,13 +36998,13 @@
         <v>334.8372863499044</v>
       </c>
       <c r="M31" t="n">
-        <v>368.4319045996734</v>
+        <v>368.4319045996735</v>
       </c>
       <c r="N31" t="n">
         <v>358.1085675748541</v>
       </c>
       <c r="O31" t="n">
-        <v>330.9333850311484</v>
+        <v>330.9333850311485</v>
       </c>
       <c r="P31" t="n">
         <v>266.581285074011</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>348.7861565425432</v>
+        <v>198.8502688003797</v>
       </c>
       <c r="K32" t="n">
-        <v>48.79745262736209</v>
+        <v>511.9336214551717</v>
       </c>
       <c r="L32" t="n">
-        <v>75.63373025568869</v>
+        <v>75.63373025568875</v>
       </c>
       <c r="M32" t="n">
-        <v>97.11277692350801</v>
+        <v>97.11277692350809</v>
       </c>
       <c r="N32" t="n">
-        <v>100.5716302464808</v>
+        <v>100.5716302464809</v>
       </c>
       <c r="O32" t="n">
-        <v>293.6305508623976</v>
+        <v>89.5116044193942</v>
       </c>
       <c r="P32" t="n">
-        <v>511.9336214551716</v>
+        <v>511.9336214551717</v>
       </c>
       <c r="Q32" t="n">
         <v>441.5030455394302</v>
       </c>
       <c r="R32" t="n">
-        <v>109.081334642643</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37150,28 +37150,28 @@
         <v>249.5747788479611</v>
       </c>
       <c r="K33" t="n">
-        <v>37.86061508918133</v>
+        <v>511.9336214551717</v>
       </c>
       <c r="L33" t="n">
-        <v>69.85839975006864</v>
+        <v>69.8583997500687</v>
       </c>
       <c r="M33" t="n">
-        <v>89.44017629822963</v>
+        <v>467.8461968848604</v>
       </c>
       <c r="N33" t="n">
-        <v>97.70183727464425</v>
+        <v>97.70183727464433</v>
       </c>
       <c r="O33" t="n">
-        <v>477.362941740163</v>
+        <v>80.28817728540764</v>
       </c>
       <c r="P33" t="n">
-        <v>511.9336214551716</v>
+        <v>56.52935895730607</v>
       </c>
       <c r="Q33" t="n">
         <v>427.4377556358327</v>
       </c>
       <c r="R33" t="n">
-        <v>65.88017300397289</v>
+        <v>65.8801730039729</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>48.61353811309591</v>
+        <v>48.61353811309602</v>
       </c>
       <c r="K34" t="n">
         <v>212.6247271755445</v>
@@ -37241,7 +37241,7 @@
         <v>358.1085675748541</v>
       </c>
       <c r="O34" t="n">
-        <v>330.9333850311484</v>
+        <v>330.9333850311485</v>
       </c>
       <c r="P34" t="n">
         <v>266.581285074011</v>
@@ -37305,25 +37305,25 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>348.7861565425432</v>
+        <v>348.7861565425433</v>
       </c>
       <c r="K35" t="n">
-        <v>252.9163990703654</v>
+        <v>48.79745262736215</v>
       </c>
       <c r="L35" t="n">
-        <v>75.63373025568869</v>
+        <v>75.63373025568875</v>
       </c>
       <c r="M35" t="n">
-        <v>97.11277692350801</v>
+        <v>97.11277692350809</v>
       </c>
       <c r="N35" t="n">
-        <v>100.5716302464808</v>
+        <v>331.9201434670204</v>
       </c>
       <c r="O35" t="n">
-        <v>89.51160441939412</v>
+        <v>511.9336214551715</v>
       </c>
       <c r="P35" t="n">
-        <v>511.9336214551716</v>
+        <v>62.2820376418573</v>
       </c>
       <c r="Q35" t="n">
         <v>441.5030455394302</v>
@@ -37387,28 +37387,28 @@
         <v>249.5747788479611</v>
       </c>
       <c r="K36" t="n">
-        <v>511.9336214551716</v>
+        <v>488.3929730513447</v>
       </c>
       <c r="L36" t="n">
-        <v>69.85839975006864</v>
+        <v>69.8583997500687</v>
       </c>
       <c r="M36" t="n">
-        <v>467.8461968848604</v>
+        <v>511.9336214551715</v>
       </c>
       <c r="N36" t="n">
-        <v>97.70183727464425</v>
+        <v>97.70183727464433</v>
       </c>
       <c r="O36" t="n">
-        <v>80.28817728540758</v>
+        <v>80.28817728540764</v>
       </c>
       <c r="P36" t="n">
-        <v>56.52935895730603</v>
+        <v>511.9336214551715</v>
       </c>
       <c r="Q36" t="n">
-        <v>427.4377556358327</v>
+        <v>17.36688997545519</v>
       </c>
       <c r="R36" t="n">
-        <v>65.88017300397289</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>48.61353811309601</v>
+        <v>48.61353811309602</v>
       </c>
       <c r="K37" t="n">
         <v>212.6247271755445</v>
@@ -37472,13 +37472,13 @@
         <v>334.8372863499044</v>
       </c>
       <c r="M37" t="n">
-        <v>368.4319045996735</v>
+        <v>368.4319045996727</v>
       </c>
       <c r="N37" t="n">
         <v>358.1085675748541</v>
       </c>
       <c r="O37" t="n">
-        <v>330.9333850311481</v>
+        <v>330.9333850311485</v>
       </c>
       <c r="P37" t="n">
         <v>266.581285074011</v>
@@ -37542,28 +37542,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>348.7861565425432</v>
+        <v>348.7861565425433</v>
       </c>
       <c r="K38" t="n">
-        <v>287.7471383520162</v>
+        <v>244.9332438027216</v>
       </c>
       <c r="L38" t="n">
-        <v>75.63373025568869</v>
+        <v>75.63373025568875</v>
       </c>
       <c r="M38" t="n">
+        <v>97.11277692350809</v>
+      </c>
+      <c r="N38" t="n">
+        <v>100.5716302464809</v>
+      </c>
+      <c r="O38" t="n">
         <v>511.9336214551716</v>
       </c>
-      <c r="N38" t="n">
-        <v>100.5716302464808</v>
-      </c>
-      <c r="O38" t="n">
-        <v>89.51160441939412</v>
-      </c>
       <c r="P38" t="n">
-        <v>62.28203764185724</v>
+        <v>511.9336214551716</v>
       </c>
       <c r="Q38" t="n">
-        <v>441.5030455394302</v>
+        <v>27.06418377129637</v>
       </c>
       <c r="R38" t="n">
         <v>109.081334642643</v>
@@ -37621,31 +37621,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>249.5747788479611</v>
+        <v>3.445077863483057</v>
       </c>
       <c r="K39" t="n">
         <v>511.9336214551716</v>
       </c>
       <c r="L39" t="n">
-        <v>69.85839975006864</v>
+        <v>304.8700318272843</v>
       </c>
       <c r="M39" t="n">
-        <v>89.44017629822963</v>
+        <v>89.44017629822972</v>
       </c>
       <c r="N39" t="n">
-        <v>97.70183727464425</v>
+        <v>97.70183727464433</v>
       </c>
       <c r="O39" t="n">
-        <v>80.28817728540758</v>
+        <v>80.28817728540764</v>
       </c>
       <c r="P39" t="n">
-        <v>434.9353795439367</v>
+        <v>511.9336214551716</v>
       </c>
       <c r="Q39" t="n">
         <v>427.4377556358327</v>
       </c>
       <c r="R39" t="n">
-        <v>65.88017300397289</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>48.61353811309591</v>
+        <v>48.61353811309602</v>
       </c>
       <c r="K40" t="n">
         <v>212.6247271755445</v>
@@ -37715,13 +37715,13 @@
         <v>358.1085675748541</v>
       </c>
       <c r="O40" t="n">
-        <v>330.9333850311484</v>
+        <v>330.9333850311485</v>
       </c>
       <c r="P40" t="n">
         <v>266.581285074011</v>
       </c>
       <c r="Q40" t="n">
-        <v>106.9196051769934</v>
+        <v>106.9196051769932</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,28 +37779,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>348.7861565425432</v>
+        <v>348.7861565425433</v>
       </c>
       <c r="K41" t="n">
-        <v>291.2059916749891</v>
+        <v>511.9336214551715</v>
       </c>
       <c r="L41" t="n">
-        <v>75.63373025568869</v>
+        <v>511.9336214551715</v>
       </c>
       <c r="M41" t="n">
-        <v>97.11277692350801</v>
+        <v>97.11277692350809</v>
       </c>
       <c r="N41" t="n">
-        <v>511.9336214551716</v>
+        <v>100.5716302464809</v>
       </c>
       <c r="O41" t="n">
-        <v>89.51160441939412</v>
+        <v>89.5116044193942</v>
       </c>
       <c r="P41" t="n">
-        <v>62.28203764185724</v>
+        <v>62.2820376418573</v>
       </c>
       <c r="Q41" t="n">
-        <v>441.5030455394302</v>
+        <v>195.837515768455</v>
       </c>
       <c r="R41" t="n">
         <v>109.081334642643</v>
@@ -37861,28 +37861,28 @@
         <v>249.5747788479611</v>
       </c>
       <c r="K42" t="n">
-        <v>511.9336214551716</v>
+        <v>511.9336214551715</v>
       </c>
       <c r="L42" t="n">
-        <v>511.9336214551716</v>
+        <v>511.9336214551715</v>
       </c>
       <c r="M42" t="n">
-        <v>89.44017629822963</v>
+        <v>89.44017629822972</v>
       </c>
       <c r="N42" t="n">
-        <v>97.70183727464425</v>
+        <v>97.70183727464433</v>
       </c>
       <c r="O42" t="n">
-        <v>80.28817728540758</v>
+        <v>426.6898418273127</v>
       </c>
       <c r="P42" t="n">
-        <v>56.52935895730603</v>
+        <v>56.52935895730607</v>
       </c>
       <c r="Q42" t="n">
-        <v>363.7685545173604</v>
+        <v>17.36688997545519</v>
       </c>
       <c r="R42" t="n">
-        <v>65.88017300397289</v>
+        <v>65.8801730039729</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>48.61353811309601</v>
+        <v>48.61353811309515</v>
       </c>
       <c r="K43" t="n">
         <v>212.6247271755445</v>
@@ -37946,13 +37946,13 @@
         <v>334.8372863499044</v>
       </c>
       <c r="M43" t="n">
-        <v>368.4319045996734</v>
+        <v>368.4319045996735</v>
       </c>
       <c r="N43" t="n">
         <v>358.1085675748541</v>
       </c>
       <c r="O43" t="n">
-        <v>330.9333850311484</v>
+        <v>330.9333850311485</v>
       </c>
       <c r="P43" t="n">
         <v>266.581285074011</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>4.201322183229109</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>124.1289709513377</v>
+        <v>348.7861565425433</v>
       </c>
       <c r="K44" t="n">
-        <v>206.7938168949561</v>
+        <v>48.79745262736215</v>
       </c>
       <c r="L44" t="n">
-        <v>271.6421911238498</v>
+        <v>75.63373025568875</v>
       </c>
       <c r="M44" t="n">
-        <v>315.2099564264878</v>
+        <v>97.11277692350809</v>
       </c>
       <c r="N44" t="n">
-        <v>322.1978501274</v>
+        <v>100.5716302464809</v>
       </c>
       <c r="O44" t="n">
-        <v>298.7869592732533</v>
+        <v>293.6305508623967</v>
       </c>
       <c r="P44" t="n">
-        <v>240.8937112531726</v>
+        <v>511.9336214551715</v>
       </c>
       <c r="Q44" t="n">
-        <v>161.1941121877317</v>
+        <v>441.5030455394302</v>
       </c>
       <c r="R44" t="n">
-        <v>58.82526145471049</v>
+        <v>109.081334642643</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>22.31535144311488</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>312.361855595743</v>
+        <v>249.5747788479611</v>
       </c>
       <c r="K45" t="n">
-        <v>145.1737298295874</v>
+        <v>511.9336214551715</v>
       </c>
       <c r="L45" t="n">
-        <v>214.1541257794519</v>
+        <v>69.8583997500687</v>
       </c>
       <c r="M45" t="n">
-        <v>257.8264825848162</v>
+        <v>467.8461968848599</v>
       </c>
       <c r="N45" t="n">
-        <v>270.5448280395447</v>
+        <v>97.70183727464433</v>
       </c>
       <c r="O45" t="n">
-        <v>238.4057462161409</v>
+        <v>80.28817728540764</v>
       </c>
       <c r="P45" t="n">
-        <v>183.4326479153363</v>
+        <v>56.52935895730607</v>
       </c>
       <c r="Q45" t="n">
-        <v>252.517716716942</v>
+        <v>427.4377556358327</v>
       </c>
       <c r="R45" t="n">
-        <v>107.1416677554515</v>
+        <v>65.8801730039729</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>88.00413230743453</v>
+        <v>48.61353811309515</v>
       </c>
       <c r="K46" t="n">
-        <v>277.3555737492421</v>
+        <v>212.6247271755445</v>
       </c>
       <c r="L46" t="n">
-        <v>417.6704839137738</v>
+        <v>334.8372863499044</v>
       </c>
       <c r="M46" t="n">
-        <v>215.6404327273627</v>
+        <v>368.4319045996735</v>
       </c>
       <c r="N46" t="n">
-        <v>107.9797223519805</v>
+        <v>358.1085675748541</v>
       </c>
       <c r="O46" t="n">
-        <v>409.6841833510116</v>
+        <v>330.9333850311485</v>
       </c>
       <c r="P46" t="n">
-        <v>333.9661976574595</v>
+        <v>266.581285074011</v>
       </c>
       <c r="Q46" t="n">
-        <v>153.5734258178642</v>
+        <v>106.9196051769934</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
